--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2326134.793769117</v>
+        <v>2325200.634243724</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4571037.882634535</v>
+        <v>4571037.882634532</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1063064.549373536</v>
+        <v>1063064.549373537</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8086789.410294077</v>
+        <v>8086789.410294075</v>
       </c>
     </row>
     <row r="11">
@@ -661,26 +661,26 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>11.20861519035161</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.20861519035162</v>
+        <v>12.725494085322</v>
       </c>
       <c r="T3" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="W3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.177487233474765</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>12.725494085322</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="I5" t="n">
         <v>12.725494085322</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.20861519035161</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>11.20861519035162</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.20861519035161</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12.725494085322</v>
-      </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>164.9366423243501</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>143.1800202821512</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>229.9609751381512</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355087</v>
+        <v>92.94867414296913</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>133.0684154354979</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>49.81315995577556</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.419053599019</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>323.983486676552</v>
       </c>
       <c r="H11" t="n">
-        <v>231.5096420935466</v>
+        <v>231.5096420935465</v>
       </c>
       <c r="I11" t="n">
-        <v>34.49394917686794</v>
+        <v>34.49394917686792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.69845925617953</v>
+        <v>69.69845925617952</v>
       </c>
       <c r="T11" t="n">
         <v>134.6518928374043</v>
       </c>
       <c r="U11" t="n">
-        <v>168.5741419855949</v>
+        <v>37.62860333446736</v>
       </c>
       <c r="V11" t="n">
-        <v>123.156236267904</v>
+        <v>254.1017749190315</v>
       </c>
       <c r="W11" t="n">
         <v>282.7050783969102</v>
@@ -1469,7 +1469,7 @@
         <v>85.01843450159699</v>
       </c>
       <c r="I12" t="n">
-        <v>40.35175533086261</v>
+        <v>40.3517553308626</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.27465492351042</v>
+        <v>8.274654923510408</v>
       </c>
       <c r="S12" t="n">
         <v>128.9732446467151</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.72608758772418</v>
+        <v>28.72608758772417</v>
       </c>
       <c r="S13" t="n">
         <v>112.5792819317195</v>
@@ -1584,7 +1584,7 @@
         <v>147.8892162920597</v>
       </c>
       <c r="U13" t="n">
-        <v>197.9890927210936</v>
+        <v>197.9890927210933</v>
       </c>
       <c r="V13" t="n">
         <v>178.7355854428988</v>
@@ -1593,7 +1593,7 @@
         <v>195.9131317636489</v>
       </c>
       <c r="X13" t="n">
-        <v>147.1555527103607</v>
+        <v>147.1555527103615</v>
       </c>
       <c r="Y13" t="n">
         <v>136.2969742870378</v>
@@ -1624,10 +1624,10 @@
         <v>323.983486676552</v>
       </c>
       <c r="H14" t="n">
-        <v>100.5641034424187</v>
+        <v>231.5096420935465</v>
       </c>
       <c r="I14" t="n">
-        <v>34.49394917686794</v>
+        <v>34.49394917686792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.69845925617953</v>
+        <v>69.69845925617952</v>
       </c>
       <c r="T14" t="n">
         <v>134.6518928374043</v>
       </c>
       <c r="U14" t="n">
-        <v>168.5741419855949</v>
+        <v>37.62860333446736</v>
       </c>
       <c r="V14" t="n">
         <v>254.1017749190315</v>
@@ -1706,7 +1706,7 @@
         <v>85.01843450159699</v>
       </c>
       <c r="I15" t="n">
-        <v>40.35175533086261</v>
+        <v>40.3517553308626</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.27465492351042</v>
+        <v>8.274654923510408</v>
       </c>
       <c r="S15" t="n">
         <v>128.9732446467151</v>
@@ -1782,10 +1782,10 @@
         <v>81.77955843651181</v>
       </c>
       <c r="H16" t="n">
-        <v>67.49059114854759</v>
+        <v>67.49059114854764</v>
       </c>
       <c r="I16" t="n">
-        <v>40.92472916166726</v>
+        <v>40.92472916166725</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.72608758772382</v>
+        <v>28.72608758772337</v>
       </c>
       <c r="S16" t="n">
         <v>112.5792819317195</v>
@@ -1821,7 +1821,7 @@
         <v>147.8892162920597</v>
       </c>
       <c r="U16" t="n">
-        <v>197.9890927210935</v>
+        <v>197.9890927210936</v>
       </c>
       <c r="V16" t="n">
         <v>178.7355854428988</v>
@@ -1861,10 +1861,10 @@
         <v>323.983486676552</v>
       </c>
       <c r="H17" t="n">
-        <v>231.5096420935466</v>
+        <v>100.5641034424187</v>
       </c>
       <c r="I17" t="n">
-        <v>34.49394917686793</v>
+        <v>34.49394917686794</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.69845925617952</v>
+        <v>69.69845925617953</v>
       </c>
       <c r="T17" t="n">
         <v>134.6518928374043</v>
@@ -1906,7 +1906,7 @@
         <v>254.1017749190315</v>
       </c>
       <c r="W17" t="n">
-        <v>151.7595397457827</v>
+        <v>282.7050783969102</v>
       </c>
       <c r="X17" t="n">
         <v>300.9741127317885</v>
@@ -1943,7 +1943,7 @@
         <v>85.01843450159699</v>
       </c>
       <c r="I18" t="n">
-        <v>40.3517553308626</v>
+        <v>40.35175533086261</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.274654923510411</v>
+        <v>8.27465492351042</v>
       </c>
       <c r="S18" t="n">
         <v>128.9732446467151</v>
@@ -2016,13 +2016,13 @@
         <v>71.1687091546715</v>
       </c>
       <c r="G19" t="n">
-        <v>81.77955843651155</v>
+        <v>81.77955843651181</v>
       </c>
       <c r="H19" t="n">
         <v>67.49059114854764</v>
       </c>
       <c r="I19" t="n">
-        <v>40.92472916166727</v>
+        <v>40.92472916166726</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.72608758772417</v>
+        <v>28.72608758772418</v>
       </c>
       <c r="S19" t="n">
-        <v>112.5792819317193</v>
+        <v>112.5792819317195</v>
       </c>
       <c r="T19" t="n">
         <v>147.8892162920597</v>
       </c>
       <c r="U19" t="n">
-        <v>197.9890927210935</v>
+        <v>197.9890927210936</v>
       </c>
       <c r="V19" t="n">
         <v>178.7355854428988</v>
@@ -2083,7 +2083,7 @@
         <v>311.9058319697976</v>
       </c>
       <c r="C20" t="n">
-        <v>277.9066499795334</v>
+        <v>304.6597801976134</v>
       </c>
       <c r="D20" t="n">
         <v>297.0027512110137</v>
@@ -2098,10 +2098,10 @@
         <v>323.983486676552</v>
       </c>
       <c r="H20" t="n">
-        <v>231.5096420935465</v>
+        <v>231.5096420935466</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.49394917686794</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.69845925617953</v>
       </c>
       <c r="T20" t="n">
         <v>134.6518928374043</v>
       </c>
       <c r="U20" t="n">
-        <v>168.5741419855949</v>
+        <v>37.62860333446691</v>
       </c>
       <c r="V20" t="n">
         <v>254.1017749190315</v>
@@ -2180,7 +2180,7 @@
         <v>85.01843450159699</v>
       </c>
       <c r="I21" t="n">
-        <v>40.3517553308626</v>
+        <v>40.35175533086261</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.274654923510408</v>
+        <v>8.27465492351042</v>
       </c>
       <c r="S21" t="n">
         <v>128.9732446467151</v>
@@ -2259,7 +2259,7 @@
         <v>67.49059114854764</v>
       </c>
       <c r="I22" t="n">
-        <v>40.92472916166725</v>
+        <v>40.92472916166726</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.72608758772417</v>
+        <v>28.72608758772418</v>
       </c>
       <c r="S22" t="n">
         <v>112.5792819317195</v>
@@ -2335,10 +2335,10 @@
         <v>323.983486676552</v>
       </c>
       <c r="H23" t="n">
-        <v>100.5641034424187</v>
+        <v>231.5096420935466</v>
       </c>
       <c r="I23" t="n">
-        <v>34.49394917686794</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.69845925617953</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>134.6518928374043</v>
+        <v>107.8987626193233</v>
       </c>
       <c r="U23" t="n">
         <v>168.5741419855949</v>
@@ -2532,7 +2532,7 @@
         <v>147.8892162920597</v>
       </c>
       <c r="U25" t="n">
-        <v>197.9890927210936</v>
+        <v>197.9890927210928</v>
       </c>
       <c r="V25" t="n">
         <v>178.7355854428988</v>
@@ -2572,7 +2572,7 @@
         <v>323.983486676552</v>
       </c>
       <c r="H26" t="n">
-        <v>231.5096420935466</v>
+        <v>100.5641034424187</v>
       </c>
       <c r="I26" t="n">
         <v>34.49394917686794</v>
@@ -2608,7 +2608,7 @@
         <v>69.69845925617953</v>
       </c>
       <c r="T26" t="n">
-        <v>3.706354186276644</v>
+        <v>134.6518928374043</v>
       </c>
       <c r="U26" t="n">
         <v>168.5741419855949</v>
@@ -2733,7 +2733,7 @@
         <v>67.49059114854764</v>
       </c>
       <c r="I28" t="n">
-        <v>40.92472916166726</v>
+        <v>40.92472916166645</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>195.9131317636489</v>
       </c>
       <c r="X28" t="n">
-        <v>147.1555527103607</v>
+        <v>147.1555527103615</v>
       </c>
       <c r="Y28" t="n">
         <v>136.2969742870378</v>
@@ -2797,7 +2797,7 @@
         <v>304.6597801976134</v>
       </c>
       <c r="D29" t="n">
-        <v>166.0572125598858</v>
+        <v>297.0027512110137</v>
       </c>
       <c r="E29" t="n">
         <v>313.9737233501356</v>
@@ -2851,7 +2851,7 @@
         <v>168.5741419855949</v>
       </c>
       <c r="V29" t="n">
-        <v>254.1017749190315</v>
+        <v>123.1562362679035</v>
       </c>
       <c r="W29" t="n">
         <v>282.7050783969102</v>
@@ -2961,10 +2961,10 @@
         <v>69.41925773490424</v>
       </c>
       <c r="F31" t="n">
-        <v>71.16870915467071</v>
+        <v>71.1687091546715</v>
       </c>
       <c r="G31" t="n">
-        <v>81.77955843651181</v>
+        <v>81.77955843651155</v>
       </c>
       <c r="H31" t="n">
         <v>67.49059114854764</v>
@@ -3006,7 +3006,7 @@
         <v>147.8892162920597</v>
       </c>
       <c r="U31" t="n">
-        <v>197.9890927210936</v>
+        <v>197.9890927210933</v>
       </c>
       <c r="V31" t="n">
         <v>178.7355854428988</v>
@@ -3243,7 +3243,7 @@
         <v>147.8892162920597</v>
       </c>
       <c r="U34" t="n">
-        <v>197.9890927210936</v>
+        <v>197.989092721093</v>
       </c>
       <c r="V34" t="n">
         <v>178.7355854428988</v>
@@ -3280,7 +3280,7 @@
         <v>328.1415278008367</v>
       </c>
       <c r="G35" t="n">
-        <v>193.037948025424</v>
+        <v>323.983486676552</v>
       </c>
       <c r="H35" t="n">
         <v>231.5096420935466</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.69845925617953</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>134.6518928374043</v>
       </c>
       <c r="U35" t="n">
-        <v>168.5741419855949</v>
+        <v>107.3270625906464</v>
       </c>
       <c r="V35" t="n">
         <v>254.1017749190315</v>
@@ -3480,7 +3480,7 @@
         <v>147.8892162920597</v>
       </c>
       <c r="U37" t="n">
-        <v>197.9890927210933</v>
+        <v>197.9890927210936</v>
       </c>
       <c r="V37" t="n">
         <v>178.7355854428988</v>
@@ -3505,7 +3505,7 @@
         <v>311.9058319697976</v>
       </c>
       <c r="C38" t="n">
-        <v>173.7142415464854</v>
+        <v>304.6597801976134</v>
       </c>
       <c r="D38" t="n">
         <v>297.0027512110137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.69845925617952</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>134.6518928374043</v>
@@ -3562,7 +3562,7 @@
         <v>168.5741419855949</v>
       </c>
       <c r="V38" t="n">
-        <v>254.1017749190315</v>
+        <v>192.854695524083</v>
       </c>
       <c r="W38" t="n">
         <v>282.7050783969102</v>
@@ -3754,13 +3754,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>84.77087509066219</v>
+        <v>408.5674529610372</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>316.0936083780318</v>
       </c>
       <c r="I41" t="n">
-        <v>119.0779154613532</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>8.48666011992329</v>
       </c>
       <c r="S41" t="n">
-        <v>154.2824255406648</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.2358591218896</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1581082700802</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>209.8596211349538</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.4611859109522</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>125.5086954461525</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.1632482162047</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.473182576545</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5730590055789</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>21.24663628642587</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>382.0618408123429</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>151.1065266909007</v>
+        <v>408.5674529610372</v>
       </c>
       <c r="H44" t="n">
         <v>316.0936083780318</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>119.0779154613532</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3635247209971</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>152.0745574330329</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>15.369690585145</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.473182576545</v>
+        <v>150.4028404832253</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5730590055789</v>
       </c>
       <c r="V46" t="n">
-        <v>79.25469231370315</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="C2" t="n">
         <v>38.04794191166981</v>
@@ -4315,40 +4315,40 @@
         <v>38.04794191166981</v>
       </c>
       <c r="E2" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="F2" t="n">
         <v>25.19390748205163</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>12.33987305243345</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.01803952682576</v>
-      </c>
       <c r="H2" t="n">
-        <v>1.01803952682576</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="I2" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01803952682576</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="K2" t="n">
-        <v>1.01803952682576</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="L2" t="n">
-        <v>13.61627867129454</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="M2" t="n">
-        <v>26.21451781576332</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="N2" t="n">
-        <v>26.21451781576332</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="O2" t="n">
-        <v>38.81275696023209</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="P2" t="n">
-        <v>38.81275696023209</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="Q2" t="n">
         <v>50.90197634128799</v>
@@ -4357,25 +4357,25 @@
         <v>50.90197634128799</v>
       </c>
       <c r="S2" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="T2" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="U2" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="V2" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="W2" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="X2" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="3">
@@ -4418,16 +4418,16 @@
         <v>26.21451781576332</v>
       </c>
       <c r="M3" t="n">
-        <v>26.21451781576332</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="N3" t="n">
-        <v>26.21451781576332</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="O3" t="n">
-        <v>26.21451781576332</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="P3" t="n">
-        <v>38.81275696023209</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q3" t="n">
         <v>50.90197634128799</v>
@@ -4436,22 +4436,22 @@
         <v>50.90197634128799</v>
       </c>
       <c r="S3" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="T3" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="U3" t="n">
-        <v>26.72610838606212</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="V3" t="n">
-        <v>26.72610838606212</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="W3" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="X3" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="Y3" t="n">
         <v>1.01803952682576</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="C4" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="D4" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="E4" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="F4" t="n">
         <v>1.01803952682576</v>
@@ -4491,22 +4491,22 @@
         <v>1.01803952682576</v>
       </c>
       <c r="K4" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="L4" t="n">
-        <v>13.61627867129454</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="M4" t="n">
-        <v>26.21451781576332</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="N4" t="n">
         <v>38.81275696023209</v>
       </c>
       <c r="O4" t="n">
-        <v>50.90197634128799</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="P4" t="n">
-        <v>50.90197634128799</v>
+        <v>47.47977997123704</v>
       </c>
       <c r="Q4" t="n">
         <v>50.90197634128799</v>
@@ -4515,22 +4515,22 @@
         <v>50.90197634128799</v>
       </c>
       <c r="S4" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="T4" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="U4" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="V4" t="n">
         <v>38.04794191166981</v>
-      </c>
-      <c r="T4" t="n">
-        <v>38.04794191166981</v>
-      </c>
-      <c r="U4" t="n">
-        <v>38.04794191166981</v>
-      </c>
-      <c r="V4" t="n">
-        <v>25.19390748205163</v>
       </c>
       <c r="W4" t="n">
         <v>25.19390748205163</v>
       </c>
       <c r="X4" t="n">
-        <v>25.19390748205163</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="Y4" t="n">
         <v>13.87207395644394</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="F5" t="n">
         <v>38.04794191166981</v>
       </c>
-      <c r="C5" t="n">
-        <v>38.04794191166981</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.04794191166981</v>
-      </c>
-      <c r="E5" t="n">
-        <v>35.84845985765489</v>
-      </c>
-      <c r="F5" t="n">
-        <v>22.99442542803671</v>
-      </c>
       <c r="G5" t="n">
-        <v>13.87207395644394</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="H5" t="n">
         <v>13.87207395644394</v>
@@ -4567,25 +4567,25 @@
         <v>1.01803952682576</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01803952682576</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="K5" t="n">
-        <v>13.61627867129454</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="L5" t="n">
+        <v>13.10725890788166</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.10725890788166</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13.10725890788166</v>
+      </c>
+      <c r="O5" t="n">
         <v>25.70549805235044</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>38.30373719681921</v>
-      </c>
-      <c r="N5" t="n">
-        <v>38.30373719681921</v>
-      </c>
-      <c r="O5" t="n">
-        <v>38.30373719681921</v>
-      </c>
-      <c r="P5" t="n">
-        <v>50.90197634128799</v>
       </c>
       <c r="Q5" t="n">
         <v>50.90197634128799</v>
@@ -4600,19 +4600,19 @@
         <v>50.90197634128799</v>
       </c>
       <c r="U5" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="V5" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="W5" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="X5" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.04794191166981</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="C6" t="n">
-        <v>25.19390748205163</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="D6" t="n">
-        <v>25.19390748205163</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="E6" t="n">
+        <v>39.5801428156803</v>
+      </c>
+      <c r="F6" t="n">
+        <v>39.5801428156803</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="H6" t="n">
         <v>13.87207395644394</v>
-      </c>
-      <c r="F6" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.01803952682576</v>
       </c>
       <c r="I6" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01803952682576</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="K6" t="n">
-        <v>13.61627867129454</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="L6" t="n">
         <v>25.70549805235044</v>
       </c>
       <c r="M6" t="n">
-        <v>38.30373719681921</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="N6" t="n">
-        <v>38.30373719681921</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="O6" t="n">
-        <v>38.30373719681921</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="P6" t="n">
         <v>38.30373719681921</v>
@@ -4670,28 +4670,28 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R6" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="S6" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="T6" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="U6" t="n">
-        <v>38.04794191166981</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="V6" t="n">
-        <v>38.04794191166981</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="W6" t="n">
-        <v>38.04794191166981</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="X6" t="n">
-        <v>38.04794191166981</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.04794191166981</v>
+        <v>39.5801428156803</v>
       </c>
     </row>
     <row r="7">
@@ -4716,7 +4716,7 @@
         <v>25.19390748205163</v>
       </c>
       <c r="G7" t="n">
-        <v>13.87207395644394</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="H7" t="n">
         <v>13.87207395644394</v>
@@ -4728,22 +4728,22 @@
         <v>1.01803952682576</v>
       </c>
       <c r="K7" t="n">
-        <v>13.61627867129454</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="L7" t="n">
-        <v>13.61627867129454</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="M7" t="n">
-        <v>22.28330168229948</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="N7" t="n">
-        <v>22.28330168229948</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="O7" t="n">
-        <v>34.88154082676826</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="P7" t="n">
-        <v>47.47977997123704</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q7" t="n">
         <v>50.90197634128799</v>
@@ -4752,7 +4752,7 @@
         <v>50.90197634128799</v>
       </c>
       <c r="S7" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="T7" t="n">
         <v>38.04794191166981</v>
@@ -4761,7 +4761,7 @@
         <v>38.04794191166981</v>
       </c>
       <c r="V7" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="W7" t="n">
         <v>25.19390748205163</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.37326391226304</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="C8" t="n">
-        <v>40.37326391226304</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="D8" t="n">
-        <v>40.37326391226304</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="E8" t="n">
-        <v>40.37326391226304</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="F8" t="n">
-        <v>27.51922948264486</v>
+        <v>417.283360296407</v>
       </c>
       <c r="G8" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="H8" t="n">
         <v>18.39687801105209</v>
@@ -4804,25 +4804,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J8" t="n">
-        <v>52.01424425134721</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K8" t="n">
-        <v>52.01424425134721</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L8" t="n">
-        <v>279.6756096381168</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M8" t="n">
-        <v>279.6756096381168</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N8" t="n">
-        <v>507.3369750248864</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O8" t="n">
-        <v>734.998340411656</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P8" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q8" t="n">
         <v>919.8439005526046</v>
@@ -4837,19 +4837,19 @@
         <v>881.8509868381266</v>
       </c>
       <c r="U8" t="n">
+        <v>881.8509868381266</v>
+      </c>
+      <c r="V8" t="n">
+        <v>881.8509868381266</v>
+      </c>
+      <c r="W8" t="n">
+        <v>881.8509868381266</v>
+      </c>
+      <c r="X8" t="n">
+        <v>881.8509868381266</v>
+      </c>
+      <c r="Y8" t="n">
         <v>649.5671735672668</v>
-      </c>
-      <c r="V8" t="n">
-        <v>649.5671735672668</v>
-      </c>
-      <c r="W8" t="n">
-        <v>649.5671735672668</v>
-      </c>
-      <c r="X8" t="n">
-        <v>504.9408904539827</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>272.6570771831229</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>557.9844227902851</v>
+        <v>760.996180350538</v>
       </c>
       <c r="C9" t="n">
-        <v>407.3301923503773</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D9" t="n">
-        <v>277.2412249718576</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E9" t="n">
-        <v>142.8286841279203</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F9" t="n">
-        <v>18.39687801105209</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G9" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H9" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
@@ -4886,49 +4886,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K9" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L9" t="n">
-        <v>359.1732256175491</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M9" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N9" t="n">
-        <v>814.4959563910883</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O9" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P9" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S9" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T9" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U9" t="n">
-        <v>709.7807572312464</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V9" t="n">
-        <v>709.7807572312464</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W9" t="n">
-        <v>709.7807572312464</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X9" t="n">
-        <v>709.7807572312464</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y9" t="n">
-        <v>709.7807572312464</v>
+        <v>760.996180350538</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.09147137260223</v>
+        <v>530.1721913572437</v>
       </c>
       <c r="C10" t="n">
-        <v>99.09147137260223</v>
+        <v>359.9670734232329</v>
       </c>
       <c r="D10" t="n">
-        <v>99.09147137260223</v>
+        <v>204.3339603257476</v>
       </c>
       <c r="E10" t="n">
-        <v>99.09147137260223</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="F10" t="n">
-        <v>99.09147137260223</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="G10" t="n">
-        <v>99.09147137260223</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H10" t="n">
-        <v>99.09147137260223</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I10" t="n">
         <v>48.77514818495014</v>
@@ -4986,28 +4986,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S10" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T10" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U10" t="n">
-        <v>563.6590979143218</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V10" t="n">
-        <v>331.375284643462</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W10" t="n">
-        <v>331.375284643462</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X10" t="n">
-        <v>99.09147137260223</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.09147137260223</v>
+        <v>715.380210048545</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1000.24065411871</v>
       </c>
       <c r="F11" t="n">
-        <v>668.7845654309963</v>
+        <v>668.7845654309961</v>
       </c>
       <c r="G11" t="n">
-        <v>341.5285182829639</v>
+        <v>341.5285182829638</v>
       </c>
       <c r="H11" t="n">
         <v>107.6803949561491</v>
@@ -5041,10 +5041,10 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J11" t="n">
-        <v>256.4480922804107</v>
+        <v>256.4480922804109</v>
       </c>
       <c r="K11" t="n">
-        <v>673.8218345773852</v>
+        <v>673.8218345773854</v>
       </c>
       <c r="L11" t="n">
         <v>1239.581804282814</v>
@@ -5074,7 +5074,7 @@
         <v>3435.486605446869</v>
       </c>
       <c r="U11" t="n">
-        <v>3265.209694350308</v>
+        <v>3397.477915210033</v>
       </c>
       <c r="V11" t="n">
         <v>3140.80945569586</v>
@@ -5123,22 +5123,22 @@
         <v>209.1574904497951</v>
       </c>
       <c r="K12" t="n">
-        <v>209.1574904497951</v>
+        <v>568.5567993495584</v>
       </c>
       <c r="L12" t="n">
-        <v>746.0515596512635</v>
+        <v>1065.440171492374</v>
       </c>
       <c r="M12" t="n">
-        <v>746.0515596512635</v>
+        <v>1065.440171492374</v>
       </c>
       <c r="N12" t="n">
-        <v>1465.70784783776</v>
+        <v>1065.440171492374</v>
       </c>
       <c r="O12" t="n">
-        <v>1640.39663447415</v>
+        <v>1640.396634474149</v>
       </c>
       <c r="P12" t="n">
-        <v>2092.918189778827</v>
+        <v>2092.918189778826</v>
       </c>
       <c r="Q12" t="n">
         <v>2358.634814028496</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.9236400184168</v>
+        <v>561.9236400184169</v>
       </c>
       <c r="C13" t="n">
-        <v>477.1568718667144</v>
+        <v>477.1568718667145</v>
       </c>
       <c r="D13" t="n">
-        <v>406.9621085515375</v>
+        <v>406.9621085515376</v>
       </c>
       <c r="E13" t="n">
-        <v>336.8416461930483</v>
+        <v>336.8416461930485</v>
       </c>
       <c r="F13" t="n">
-        <v>264.9540611883297</v>
+        <v>264.9540611883298</v>
       </c>
       <c r="G13" t="n">
         <v>182.3484466059945</v>
@@ -5199,7 +5199,7 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3601549925688</v>
+        <v>141.3601549925687</v>
       </c>
       <c r="K13" t="n">
         <v>330.856176160422</v>
@@ -5220,7 +5220,7 @@
         <v>1714.144392932252</v>
       </c>
       <c r="Q13" t="n">
-        <v>1818.546766237049</v>
+        <v>1818.54676623705</v>
       </c>
       <c r="R13" t="n">
         <v>1789.530516148439</v>
@@ -5229,22 +5229,22 @@
         <v>1675.814069752763</v>
       </c>
       <c r="T13" t="n">
-        <v>1526.431022993106</v>
+        <v>1526.431022993107</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.442040446547</v>
+        <v>1326.442040446548</v>
       </c>
       <c r="V13" t="n">
-        <v>1145.90104504968</v>
+        <v>1145.901045049681</v>
       </c>
       <c r="W13" t="n">
-        <v>948.0089927631658</v>
+        <v>948.0089927631666</v>
       </c>
       <c r="X13" t="n">
-        <v>799.367020328458</v>
+        <v>799.3670203284581</v>
       </c>
       <c r="Y13" t="n">
-        <v>661.6933089274097</v>
+        <v>661.6933089274098</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1792.857539075917</v>
+        <v>1925.125759935642</v>
       </c>
       <c r="C14" t="n">
-        <v>1485.120387361156</v>
+        <v>1617.388608220881</v>
       </c>
       <c r="D14" t="n">
-        <v>1185.117608360132</v>
+        <v>1317.385829219857</v>
       </c>
       <c r="E14" t="n">
-        <v>867.9724332589849</v>
+        <v>1000.24065411871</v>
       </c>
       <c r="F14" t="n">
-        <v>536.516344571271</v>
+        <v>668.7845654309961</v>
       </c>
       <c r="G14" t="n">
-        <v>209.2602974232387</v>
+        <v>341.5285182829638</v>
       </c>
       <c r="H14" t="n">
         <v>107.6803949561491</v>
@@ -5278,10 +5278,10 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J14" t="n">
-        <v>256.4480922804107</v>
+        <v>256.4480922804108</v>
       </c>
       <c r="K14" t="n">
-        <v>673.8218345773851</v>
+        <v>673.8218345773853</v>
       </c>
       <c r="L14" t="n">
         <v>1239.581804282814</v>
@@ -5311,19 +5311,19 @@
         <v>3435.486605446869</v>
       </c>
       <c r="U14" t="n">
-        <v>3265.209694350308</v>
+        <v>3397.477915210033</v>
       </c>
       <c r="V14" t="n">
-        <v>3008.541234836135</v>
+        <v>3140.80945569586</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.980549586731</v>
+        <v>2855.248770446456</v>
       </c>
       <c r="X14" t="n">
-        <v>2418.966294302096</v>
+        <v>2551.234515161821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.913935005005</v>
+        <v>2240.182155864731</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J15" t="n">
-        <v>209.1574904497951</v>
+        <v>169.1467933911424</v>
       </c>
       <c r="K15" t="n">
-        <v>209.1574904497951</v>
+        <v>528.5461022909058</v>
       </c>
       <c r="L15" t="n">
-        <v>209.1574904497951</v>
+        <v>1065.440171492374</v>
       </c>
       <c r="M15" t="n">
-        <v>611.500507555547</v>
+        <v>1065.440171492374</v>
       </c>
       <c r="N15" t="n">
-        <v>1331.156795742044</v>
+        <v>1065.440171492374</v>
       </c>
       <c r="O15" t="n">
-        <v>1906.113258723819</v>
+        <v>1640.396634474149</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.634814028496</v>
+        <v>2092.918189778826</v>
       </c>
       <c r="Q15" t="n">
         <v>2358.634814028496</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9236400184166</v>
+        <v>561.9236400184168</v>
       </c>
       <c r="C16" t="n">
-        <v>477.1568718667141</v>
+        <v>477.1568718667144</v>
       </c>
       <c r="D16" t="n">
-        <v>406.9621085515373</v>
+        <v>406.9621085515375</v>
       </c>
       <c r="E16" t="n">
-        <v>336.8416461930481</v>
+        <v>336.8416461930483</v>
       </c>
       <c r="F16" t="n">
-        <v>264.9540611883294</v>
+        <v>264.9540611883297</v>
       </c>
       <c r="G16" t="n">
         <v>182.3484466059945</v>
@@ -5445,7 +5445,7 @@
         <v>609.3349587041232</v>
       </c>
       <c r="M16" t="n">
-        <v>911.6417968253439</v>
+        <v>911.6417968253438</v>
       </c>
       <c r="N16" t="n">
         <v>1210.079212555873</v>
@@ -5460,10 +5460,10 @@
         <v>1818.546766237049</v>
       </c>
       <c r="R16" t="n">
-        <v>1789.530516148439</v>
+        <v>1789.53051614844</v>
       </c>
       <c r="S16" t="n">
-        <v>1675.814069752763</v>
+        <v>1675.814069752764</v>
       </c>
       <c r="T16" t="n">
         <v>1526.431022993107</v>
@@ -5472,16 +5472,16 @@
         <v>1326.442040446548</v>
       </c>
       <c r="V16" t="n">
-        <v>1145.90104504968</v>
+        <v>1145.901045049681</v>
       </c>
       <c r="W16" t="n">
-        <v>948.0089927631664</v>
+        <v>948.0089927631666</v>
       </c>
       <c r="X16" t="n">
-        <v>799.3670203284578</v>
+        <v>799.367020328458</v>
       </c>
       <c r="Y16" t="n">
-        <v>661.6933089274095</v>
+        <v>661.6933089274097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1925.125759935642</v>
+        <v>1792.857539075917</v>
       </c>
       <c r="C17" t="n">
-        <v>1617.388608220881</v>
+        <v>1485.120387361156</v>
       </c>
       <c r="D17" t="n">
-        <v>1317.385829219857</v>
+        <v>1185.117608360132</v>
       </c>
       <c r="E17" t="n">
-        <v>1000.24065411871</v>
+        <v>867.9724332589849</v>
       </c>
       <c r="F17" t="n">
-        <v>668.7845654309962</v>
+        <v>536.516344571271</v>
       </c>
       <c r="G17" t="n">
-        <v>341.5285182829638</v>
+        <v>209.2602974232387</v>
       </c>
       <c r="H17" t="n">
         <v>107.6803949561491</v>
@@ -5515,7 +5515,7 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J17" t="n">
-        <v>256.4480922804108</v>
+        <v>256.4480922804105</v>
       </c>
       <c r="K17" t="n">
         <v>673.8218345773853</v>
@@ -5536,16 +5536,16 @@
         <v>3407.484575995241</v>
       </c>
       <c r="Q17" t="n">
-        <v>3641.901102511095</v>
+        <v>3641.901102511094</v>
       </c>
       <c r="R17" t="n">
-        <v>3641.901102511095</v>
+        <v>3641.901102511094</v>
       </c>
       <c r="S17" t="n">
-        <v>3571.498618413944</v>
+        <v>3571.498618413943</v>
       </c>
       <c r="T17" t="n">
-        <v>3435.486605446869</v>
+        <v>3435.486605446868</v>
       </c>
       <c r="U17" t="n">
         <v>3265.209694350308</v>
@@ -5554,13 +5554,13 @@
         <v>3008.541234836135</v>
       </c>
       <c r="W17" t="n">
-        <v>2855.248770446456</v>
+        <v>2722.98054958673</v>
       </c>
       <c r="X17" t="n">
-        <v>2551.234515161821</v>
+        <v>2418.966294302096</v>
       </c>
       <c r="Y17" t="n">
-        <v>2240.182155864731</v>
+        <v>2107.913935005005</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J18" t="n">
-        <v>72.83802205022189</v>
+        <v>169.146793391143</v>
       </c>
       <c r="K18" t="n">
-        <v>72.83802205022189</v>
+        <v>528.5461022909063</v>
       </c>
       <c r="L18" t="n">
-        <v>72.83802205022189</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="M18" t="n">
-        <v>762.840912873212</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="N18" t="n">
         <v>1065.440171492375</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>561.9236400184166</v>
+        <v>561.9236400184168</v>
       </c>
       <c r="C19" t="n">
-        <v>477.1568718667141</v>
+        <v>477.1568718667144</v>
       </c>
       <c r="D19" t="n">
-        <v>406.9621085515373</v>
+        <v>406.9621085515375</v>
       </c>
       <c r="E19" t="n">
-        <v>336.8416461930481</v>
+        <v>336.8416461930483</v>
       </c>
       <c r="F19" t="n">
-        <v>264.9540611883294</v>
+        <v>264.9540611883297</v>
       </c>
       <c r="G19" t="n">
         <v>182.3484466059945</v>
@@ -5673,34 +5673,34 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J19" t="n">
-        <v>141.3601549925689</v>
+        <v>141.3601549925688</v>
       </c>
       <c r="K19" t="n">
-        <v>330.8561761604221</v>
+        <v>330.856176160422</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3349587041233</v>
+        <v>609.3349587041232</v>
       </c>
       <c r="M19" t="n">
-        <v>911.6417968253439</v>
+        <v>911.6417968253446</v>
       </c>
       <c r="N19" t="n">
-        <v>1210.079212555873</v>
+        <v>1210.079212555874</v>
       </c>
       <c r="O19" t="n">
-        <v>1485.62637266892</v>
+        <v>1485.626372668921</v>
       </c>
       <c r="P19" t="n">
-        <v>1714.144392932252</v>
+        <v>1714.144392932253</v>
       </c>
       <c r="Q19" t="n">
-        <v>1818.546766237049</v>
+        <v>1818.54676623705</v>
       </c>
       <c r="R19" t="n">
-        <v>1789.530516148439</v>
+        <v>1789.53051614844</v>
       </c>
       <c r="S19" t="n">
-        <v>1675.814069752763</v>
+        <v>1675.814069752764</v>
       </c>
       <c r="T19" t="n">
         <v>1526.431022993107</v>
@@ -5709,16 +5709,16 @@
         <v>1326.442040446548</v>
       </c>
       <c r="V19" t="n">
-        <v>1145.90104504968</v>
+        <v>1145.901045049681</v>
       </c>
       <c r="W19" t="n">
-        <v>948.0089927631664</v>
+        <v>948.0089927631666</v>
       </c>
       <c r="X19" t="n">
-        <v>799.3670203284578</v>
+        <v>799.367020328458</v>
       </c>
       <c r="Y19" t="n">
-        <v>661.6933089274095</v>
+        <v>661.6933089274097</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1863.260023173068</v>
+        <v>1925.125759935642</v>
       </c>
       <c r="C20" t="n">
-        <v>1582.546235314954</v>
+        <v>1617.388608220881</v>
       </c>
       <c r="D20" t="n">
-        <v>1282.54345631393</v>
+        <v>1317.385829219857</v>
       </c>
       <c r="E20" t="n">
-        <v>965.3982812127829</v>
+        <v>1000.24065411871</v>
       </c>
       <c r="F20" t="n">
-        <v>633.942192525069</v>
+        <v>668.7845654309963</v>
       </c>
       <c r="G20" t="n">
-        <v>306.6861453770366</v>
+        <v>341.5285182829639</v>
       </c>
       <c r="H20" t="n">
-        <v>72.83802205022189</v>
+        <v>107.6803949561491</v>
       </c>
       <c r="I20" t="n">
         <v>72.83802205022189</v>
@@ -5755,7 +5755,7 @@
         <v>256.4480922804109</v>
       </c>
       <c r="K20" t="n">
-        <v>673.8218345773854</v>
+        <v>673.8218345773853</v>
       </c>
       <c r="L20" t="n">
         <v>1239.581804282814</v>
@@ -5773,31 +5773,31 @@
         <v>3407.484575995241</v>
       </c>
       <c r="Q20" t="n">
-        <v>3641.901102511095</v>
+        <v>3641.901102511094</v>
       </c>
       <c r="R20" t="n">
-        <v>3641.901102511095</v>
+        <v>3641.901102511094</v>
       </c>
       <c r="S20" t="n">
-        <v>3641.901102511095</v>
+        <v>3571.498618413943</v>
       </c>
       <c r="T20" t="n">
-        <v>3505.88908954402</v>
+        <v>3435.486605446868</v>
       </c>
       <c r="U20" t="n">
-        <v>3335.612178447459</v>
+        <v>3397.477915210033</v>
       </c>
       <c r="V20" t="n">
-        <v>3078.943718933286</v>
+        <v>3140.80945569586</v>
       </c>
       <c r="W20" t="n">
-        <v>2793.383033683882</v>
+        <v>2855.248770446456</v>
       </c>
       <c r="X20" t="n">
-        <v>2489.368778399247</v>
+        <v>2551.234515161821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2178.316419102157</v>
+        <v>2240.182155864731</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2144.171584738115</v>
+        <v>860.9052962555163</v>
       </c>
       <c r="C21" t="n">
-        <v>1993.517354298207</v>
+        <v>710.2510658156085</v>
       </c>
       <c r="D21" t="n">
-        <v>1863.428386919687</v>
+        <v>580.1620984370888</v>
       </c>
       <c r="E21" t="n">
-        <v>1726.981896030575</v>
+        <v>443.7156075479765</v>
       </c>
       <c r="F21" t="n">
-        <v>1602.550089913707</v>
+        <v>319.2838014311083</v>
       </c>
       <c r="G21" t="n">
-        <v>1482.740865919143</v>
+        <v>199.4745774365447</v>
       </c>
       <c r="H21" t="n">
-        <v>1396.863659351874</v>
+        <v>113.597370869275</v>
       </c>
       <c r="I21" t="n">
-        <v>1356.10431053282</v>
+        <v>72.83802205022189</v>
       </c>
       <c r="J21" t="n">
-        <v>1492.423778932394</v>
+        <v>209.1574904497951</v>
       </c>
       <c r="K21" t="n">
-        <v>1492.423778932394</v>
+        <v>568.5567993495583</v>
       </c>
       <c r="L21" t="n">
-        <v>1514.003743947261</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="M21" t="n">
-        <v>2204.006634770251</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="N21" t="n">
-        <v>2923.662922956748</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="O21" t="n">
-        <v>2923.662922956748</v>
+        <v>1640.39663447415</v>
       </c>
       <c r="P21" t="n">
-        <v>3376.184478261425</v>
+        <v>2092.918189778827</v>
       </c>
       <c r="Q21" t="n">
-        <v>3641.901102511095</v>
+        <v>2358.634814028496</v>
       </c>
       <c r="R21" t="n">
-        <v>3633.54286521462</v>
+        <v>2350.276576732021</v>
       </c>
       <c r="S21" t="n">
-        <v>3503.266860520968</v>
+        <v>2220.000572038369</v>
       </c>
       <c r="T21" t="n">
-        <v>3327.293118127564</v>
+        <v>2044.026829644965</v>
       </c>
       <c r="U21" t="n">
-        <v>3117.246461249204</v>
+        <v>1833.980172766605</v>
       </c>
       <c r="V21" t="n">
-        <v>2894.706459620271</v>
+        <v>1611.440171137672</v>
       </c>
       <c r="W21" t="n">
-        <v>2664.589213753557</v>
+        <v>1381.322925270959</v>
       </c>
       <c r="X21" t="n">
-        <v>2475.282136103569</v>
+        <v>1192.01584762097</v>
       </c>
       <c r="Y21" t="n">
-        <v>2295.967919179076</v>
+        <v>1012.701630696478</v>
       </c>
     </row>
     <row r="22">
@@ -5910,13 +5910,13 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J22" t="n">
-        <v>141.3601549925695</v>
+        <v>141.3601549925688</v>
       </c>
       <c r="K22" t="n">
-        <v>330.8561761604228</v>
+        <v>330.856176160422</v>
       </c>
       <c r="L22" t="n">
-        <v>609.334958704124</v>
+        <v>609.3349587041232</v>
       </c>
       <c r="M22" t="n">
         <v>911.6417968253446</v>
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1792.857539075917</v>
+        <v>1890.283387029715</v>
       </c>
       <c r="C23" t="n">
-        <v>1485.120387361156</v>
+        <v>1582.546235314954</v>
       </c>
       <c r="D23" t="n">
-        <v>1185.117608360132</v>
+        <v>1282.54345631393</v>
       </c>
       <c r="E23" t="n">
-        <v>867.9724332589849</v>
+        <v>965.3982812127829</v>
       </c>
       <c r="F23" t="n">
-        <v>536.516344571271</v>
+        <v>633.942192525069</v>
       </c>
       <c r="G23" t="n">
-        <v>209.2602974232387</v>
+        <v>306.6861453770366</v>
       </c>
       <c r="H23" t="n">
-        <v>107.6803949561491</v>
+        <v>72.83802205022189</v>
       </c>
       <c r="I23" t="n">
         <v>72.83802205022189</v>
       </c>
       <c r="J23" t="n">
-        <v>256.4480922804107</v>
+        <v>256.4480922804105</v>
       </c>
       <c r="K23" t="n">
-        <v>673.8218345773852</v>
+        <v>673.8218345773853</v>
       </c>
       <c r="L23" t="n">
         <v>1239.581804282814</v>
       </c>
       <c r="M23" t="n">
-        <v>1866.185803719485</v>
+        <v>1866.185803719484</v>
       </c>
       <c r="N23" t="n">
         <v>2475.904429165146</v>
@@ -6016,25 +6016,25 @@
         <v>3641.901102511094</v>
       </c>
       <c r="S23" t="n">
-        <v>3571.498618413943</v>
+        <v>3641.901102511094</v>
       </c>
       <c r="T23" t="n">
-        <v>3435.486605446868</v>
+        <v>3532.912453400667</v>
       </c>
       <c r="U23" t="n">
-        <v>3265.209694350308</v>
+        <v>3362.635542304106</v>
       </c>
       <c r="V23" t="n">
-        <v>3008.541234836135</v>
+        <v>3105.967082789933</v>
       </c>
       <c r="W23" t="n">
-        <v>2722.98054958673</v>
+        <v>2820.406397540529</v>
       </c>
       <c r="X23" t="n">
-        <v>2418.966294302096</v>
+        <v>2516.392142255894</v>
       </c>
       <c r="Y23" t="n">
-        <v>2107.913935005005</v>
+        <v>2205.339782958803</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2144.171584738114</v>
+        <v>860.9052962555163</v>
       </c>
       <c r="C24" t="n">
-        <v>1993.517354298207</v>
+        <v>710.2510658156085</v>
       </c>
       <c r="D24" t="n">
-        <v>1863.428386919687</v>
+        <v>580.1620984370888</v>
       </c>
       <c r="E24" t="n">
-        <v>1726.981896030575</v>
+        <v>443.7156075479765</v>
       </c>
       <c r="F24" t="n">
-        <v>1602.550089913706</v>
+        <v>319.2838014311083</v>
       </c>
       <c r="G24" t="n">
-        <v>1482.740865919143</v>
+        <v>199.4745774365447</v>
       </c>
       <c r="H24" t="n">
-        <v>1396.863659351873</v>
+        <v>113.597370869275</v>
       </c>
       <c r="I24" t="n">
-        <v>1356.10431053282</v>
+        <v>72.83802205022189</v>
       </c>
       <c r="J24" t="n">
-        <v>1356.10431053282</v>
+        <v>104.2598357175854</v>
       </c>
       <c r="K24" t="n">
-        <v>1657.285460519832</v>
+        <v>104.2598357175854</v>
       </c>
       <c r="L24" t="n">
-        <v>1657.285460519832</v>
+        <v>641.1539049190537</v>
       </c>
       <c r="M24" t="n">
-        <v>2347.288351342822</v>
+        <v>1331.156795742044</v>
       </c>
       <c r="N24" t="n">
-        <v>3066.944639529319</v>
+        <v>1331.156795742044</v>
       </c>
       <c r="O24" t="n">
-        <v>3641.901102511094</v>
+        <v>1906.113258723819</v>
       </c>
       <c r="P24" t="n">
-        <v>3641.901102511094</v>
+        <v>2358.634814028496</v>
       </c>
       <c r="Q24" t="n">
-        <v>3641.901102511094</v>
+        <v>2358.634814028496</v>
       </c>
       <c r="R24" t="n">
-        <v>3633.542865214619</v>
+        <v>2350.276576732021</v>
       </c>
       <c r="S24" t="n">
-        <v>3503.266860520968</v>
+        <v>2220.000572038369</v>
       </c>
       <c r="T24" t="n">
-        <v>3327.293118127564</v>
+        <v>2044.026829644965</v>
       </c>
       <c r="U24" t="n">
-        <v>3117.246461249204</v>
+        <v>1833.980172766605</v>
       </c>
       <c r="V24" t="n">
-        <v>2894.70645962027</v>
+        <v>1611.440171137672</v>
       </c>
       <c r="W24" t="n">
-        <v>2664.589213753557</v>
+        <v>1381.322925270959</v>
       </c>
       <c r="X24" t="n">
-        <v>2475.282136103569</v>
+        <v>1192.01584762097</v>
       </c>
       <c r="Y24" t="n">
-        <v>2295.967919179076</v>
+        <v>1012.701630696478</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2385.277976292461</v>
+        <v>561.9236400184168</v>
       </c>
       <c r="C25" t="n">
-        <v>2300.511208140759</v>
+        <v>477.1568718667144</v>
       </c>
       <c r="D25" t="n">
-        <v>2230.316444825582</v>
+        <v>406.9621085515375</v>
       </c>
       <c r="E25" t="n">
-        <v>2160.195982467093</v>
+        <v>336.8416461930483</v>
       </c>
       <c r="F25" t="n">
-        <v>2088.308397462374</v>
+        <v>264.9540611883297</v>
       </c>
       <c r="G25" t="n">
-        <v>2005.702782880039</v>
+        <v>182.3484466059945</v>
       </c>
       <c r="H25" t="n">
-        <v>1937.530468588577</v>
+        <v>114.1761323145323</v>
       </c>
       <c r="I25" t="n">
-        <v>1896.192358324266</v>
+        <v>72.83802205022189</v>
       </c>
       <c r="J25" t="n">
-        <v>1964.714491266613</v>
+        <v>141.3601549925687</v>
       </c>
       <c r="K25" t="n">
-        <v>2154.210512434466</v>
+        <v>330.856176160422</v>
       </c>
       <c r="L25" t="n">
-        <v>2432.689294978167</v>
+        <v>609.3349587041232</v>
       </c>
       <c r="M25" t="n">
-        <v>2734.996133099388</v>
+        <v>911.6417968253437</v>
       </c>
       <c r="N25" t="n">
-        <v>3033.433548829918</v>
+        <v>1210.079212555873</v>
       </c>
       <c r="O25" t="n">
-        <v>3308.980708942964</v>
+        <v>1485.62637266892</v>
       </c>
       <c r="P25" t="n">
-        <v>3537.498729206297</v>
+        <v>1714.144392932252</v>
       </c>
       <c r="Q25" t="n">
-        <v>3641.901102511094</v>
+        <v>1818.546766237049</v>
       </c>
       <c r="R25" t="n">
-        <v>3612.884852422484</v>
+        <v>1789.530516148439</v>
       </c>
       <c r="S25" t="n">
-        <v>3499.168406026808</v>
+        <v>1675.814069752763</v>
       </c>
       <c r="T25" t="n">
-        <v>3349.785359267152</v>
+        <v>1526.431022993106</v>
       </c>
       <c r="U25" t="n">
-        <v>3149.796376720592</v>
+        <v>1326.442040446548</v>
       </c>
       <c r="V25" t="n">
-        <v>2969.255381323725</v>
+        <v>1145.901045049681</v>
       </c>
       <c r="W25" t="n">
-        <v>2771.363329037211</v>
+        <v>948.0089927631666</v>
       </c>
       <c r="X25" t="n">
-        <v>2622.721356602503</v>
+        <v>799.367020328458</v>
       </c>
       <c r="Y25" t="n">
-        <v>2485.047645201454</v>
+        <v>661.6933089274097</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1925.125759935642</v>
+        <v>1792.857539075917</v>
       </c>
       <c r="C26" t="n">
-        <v>1617.388608220881</v>
+        <v>1485.120387361156</v>
       </c>
       <c r="D26" t="n">
-        <v>1317.385829219857</v>
+        <v>1185.117608360132</v>
       </c>
       <c r="E26" t="n">
-        <v>1000.24065411871</v>
+        <v>867.9724332589849</v>
       </c>
       <c r="F26" t="n">
-        <v>668.7845654309963</v>
+        <v>536.516344571271</v>
       </c>
       <c r="G26" t="n">
-        <v>341.5285182829639</v>
+        <v>209.2602974232387</v>
       </c>
       <c r="H26" t="n">
         <v>107.6803949561491</v>
@@ -6226,10 +6226,10 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J26" t="n">
-        <v>256.4480922804105</v>
+        <v>256.4480922804107</v>
       </c>
       <c r="K26" t="n">
-        <v>673.8218345773848</v>
+        <v>673.8218345773852</v>
       </c>
       <c r="L26" t="n">
         <v>1239.581804282814</v>
@@ -6247,31 +6247,31 @@
         <v>3407.484575995241</v>
       </c>
       <c r="Q26" t="n">
-        <v>3641.901102511095</v>
+        <v>3641.901102511094</v>
       </c>
       <c r="R26" t="n">
-        <v>3641.901102511095</v>
+        <v>3641.901102511094</v>
       </c>
       <c r="S26" t="n">
-        <v>3571.498618413944</v>
+        <v>3571.498618413943</v>
       </c>
       <c r="T26" t="n">
-        <v>3567.754826306594</v>
+        <v>3435.486605446868</v>
       </c>
       <c r="U26" t="n">
-        <v>3397.477915210033</v>
+        <v>3265.209694350308</v>
       </c>
       <c r="V26" t="n">
-        <v>3140.80945569586</v>
+        <v>3008.541234836135</v>
       </c>
       <c r="W26" t="n">
-        <v>2855.248770446456</v>
+        <v>2722.98054958673</v>
       </c>
       <c r="X26" t="n">
-        <v>2551.234515161821</v>
+        <v>2418.966294302096</v>
       </c>
       <c r="Y26" t="n">
-        <v>2240.182155864731</v>
+        <v>2107.913935005005</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2144.171584738115</v>
+        <v>860.9052962555163</v>
       </c>
       <c r="C27" t="n">
-        <v>1993.517354298207</v>
+        <v>710.2510658156085</v>
       </c>
       <c r="D27" t="n">
-        <v>1863.428386919687</v>
+        <v>580.1620984370888</v>
       </c>
       <c r="E27" t="n">
-        <v>1726.981896030575</v>
+        <v>443.7156075479765</v>
       </c>
       <c r="F27" t="n">
-        <v>1602.550089913707</v>
+        <v>319.2838014311083</v>
       </c>
       <c r="G27" t="n">
-        <v>1482.740865919143</v>
+        <v>199.4745774365447</v>
       </c>
       <c r="H27" t="n">
-        <v>1396.863659351874</v>
+        <v>113.597370869275</v>
       </c>
       <c r="I27" t="n">
-        <v>1356.10431053282</v>
+        <v>72.83802205022189</v>
       </c>
       <c r="J27" t="n">
-        <v>1356.10431053282</v>
+        <v>209.1574904497951</v>
       </c>
       <c r="K27" t="n">
-        <v>1356.10431053282</v>
+        <v>568.5567993495583</v>
       </c>
       <c r="L27" t="n">
-        <v>1356.10431053282</v>
+        <v>1105.450868551027</v>
       </c>
       <c r="M27" t="n">
-        <v>2046.107201355811</v>
+        <v>1105.450868551027</v>
       </c>
       <c r="N27" t="n">
-        <v>2614.423084224643</v>
+        <v>1640.39663447415</v>
       </c>
       <c r="O27" t="n">
-        <v>3189.379547206418</v>
+        <v>1640.39663447415</v>
       </c>
       <c r="P27" t="n">
-        <v>3641.901102511095</v>
+        <v>2092.918189778827</v>
       </c>
       <c r="Q27" t="n">
-        <v>3641.901102511095</v>
+        <v>2358.634814028496</v>
       </c>
       <c r="R27" t="n">
-        <v>3633.54286521462</v>
+        <v>2350.276576732021</v>
       </c>
       <c r="S27" t="n">
-        <v>3503.266860520968</v>
+        <v>2220.000572038369</v>
       </c>
       <c r="T27" t="n">
-        <v>3327.293118127564</v>
+        <v>2044.026829644965</v>
       </c>
       <c r="U27" t="n">
-        <v>3117.246461249204</v>
+        <v>1833.980172766605</v>
       </c>
       <c r="V27" t="n">
-        <v>2894.706459620271</v>
+        <v>1611.440171137672</v>
       </c>
       <c r="W27" t="n">
-        <v>2664.589213753557</v>
+        <v>1381.322925270959</v>
       </c>
       <c r="X27" t="n">
-        <v>2475.282136103569</v>
+        <v>1192.01584762097</v>
       </c>
       <c r="Y27" t="n">
-        <v>2295.967919179076</v>
+        <v>1012.701630696478</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.9236400184168</v>
+        <v>561.923640018416</v>
       </c>
       <c r="C28" t="n">
-        <v>477.1568718667144</v>
+        <v>477.1568718667136</v>
       </c>
       <c r="D28" t="n">
-        <v>406.9621085515375</v>
+        <v>406.9621085515367</v>
       </c>
       <c r="E28" t="n">
-        <v>336.8416461930483</v>
+        <v>336.8416461930476</v>
       </c>
       <c r="F28" t="n">
-        <v>264.9540611883297</v>
+        <v>264.9540611883289</v>
       </c>
       <c r="G28" t="n">
-        <v>182.3484466059945</v>
+        <v>182.3484466059937</v>
       </c>
       <c r="H28" t="n">
-        <v>114.1761323145323</v>
+        <v>114.1761323145314</v>
       </c>
       <c r="I28" t="n">
         <v>72.83802205022189</v>
@@ -6426,10 +6426,10 @@
         <v>948.0089927631658</v>
       </c>
       <c r="X28" t="n">
-        <v>799.367020328458</v>
+        <v>799.3670203284572</v>
       </c>
       <c r="Y28" t="n">
-        <v>661.6933089274097</v>
+        <v>661.6933089274089</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1792.857539075917</v>
+        <v>1925.125759935642</v>
       </c>
       <c r="C29" t="n">
-        <v>1485.120387361156</v>
+        <v>1617.388608220881</v>
       </c>
       <c r="D29" t="n">
         <v>1317.385829219857</v>
@@ -6463,10 +6463,10 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J29" t="n">
-        <v>256.4480922804107</v>
+        <v>256.4480922804105</v>
       </c>
       <c r="K29" t="n">
-        <v>673.8218345773852</v>
+        <v>673.8218345773853</v>
       </c>
       <c r="L29" t="n">
         <v>1239.581804282814</v>
@@ -6499,16 +6499,16 @@
         <v>3265.209694350308</v>
       </c>
       <c r="V29" t="n">
-        <v>3008.541234836135</v>
+        <v>3140.80945569586</v>
       </c>
       <c r="W29" t="n">
-        <v>2722.98054958673</v>
+        <v>2855.248770446456</v>
       </c>
       <c r="X29" t="n">
-        <v>2418.966294302096</v>
+        <v>2551.234515161821</v>
       </c>
       <c r="Y29" t="n">
-        <v>2107.913935005005</v>
+        <v>2240.182155864731</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>209.1574904497951</v>
       </c>
       <c r="K30" t="n">
-        <v>209.1574904497951</v>
+        <v>568.5567993495583</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0191720372336</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="M30" t="n">
-        <v>1064.022062860224</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="N30" t="n">
-        <v>1783.678351046721</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="O30" t="n">
-        <v>2358.634814028496</v>
+        <v>1640.39663447415</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.634814028496</v>
+        <v>2092.918189778827</v>
       </c>
       <c r="Q30" t="n">
         <v>2358.634814028496</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>561.923640018416</v>
+        <v>561.9236400184166</v>
       </c>
       <c r="C31" t="n">
-        <v>477.1568718667136</v>
+        <v>477.1568718667141</v>
       </c>
       <c r="D31" t="n">
-        <v>406.9621085515367</v>
+        <v>406.9621085515373</v>
       </c>
       <c r="E31" t="n">
-        <v>336.8416461930476</v>
+        <v>336.8416461930481</v>
       </c>
       <c r="F31" t="n">
-        <v>264.9540611883297</v>
+        <v>264.9540611883294</v>
       </c>
       <c r="G31" t="n">
         <v>182.3484466059945</v>
@@ -6618,7 +6618,7 @@
         <v>114.1761323145323</v>
       </c>
       <c r="I31" t="n">
-        <v>72.83802205022189</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="J31" t="n">
         <v>141.3601549925688</v>
@@ -6651,22 +6651,22 @@
         <v>1675.814069752763</v>
       </c>
       <c r="T31" t="n">
-        <v>1526.431022993106</v>
+        <v>1526.431022993107</v>
       </c>
       <c r="U31" t="n">
-        <v>1326.442040446547</v>
+        <v>1326.442040446548</v>
       </c>
       <c r="V31" t="n">
         <v>1145.90104504968</v>
       </c>
       <c r="W31" t="n">
-        <v>948.0089927631658</v>
+        <v>948.0089927631664</v>
       </c>
       <c r="X31" t="n">
-        <v>799.3670203284572</v>
+        <v>799.3670203284578</v>
       </c>
       <c r="Y31" t="n">
-        <v>661.6933089274089</v>
+        <v>661.6933089274095</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J32" t="n">
-        <v>256.4480922804105</v>
+        <v>256.4480922804109</v>
       </c>
       <c r="K32" t="n">
-        <v>673.8218345773849</v>
+        <v>673.8218345773853</v>
       </c>
       <c r="L32" t="n">
         <v>1239.581804282814</v>
@@ -6721,16 +6721,16 @@
         <v>3407.484575995241</v>
       </c>
       <c r="Q32" t="n">
-        <v>3641.901102511095</v>
+        <v>3641.901102511094</v>
       </c>
       <c r="R32" t="n">
-        <v>3641.901102511095</v>
+        <v>3641.901102511094</v>
       </c>
       <c r="S32" t="n">
-        <v>3571.498618413944</v>
+        <v>3571.498618413943</v>
       </c>
       <c r="T32" t="n">
-        <v>3435.486605446869</v>
+        <v>3435.486605446868</v>
       </c>
       <c r="U32" t="n">
         <v>3265.209694350308</v>
@@ -6739,7 +6739,7 @@
         <v>3008.541234836135</v>
       </c>
       <c r="W32" t="n">
-        <v>2722.980549586731</v>
+        <v>2722.98054958673</v>
       </c>
       <c r="X32" t="n">
         <v>2418.966294302096</v>
@@ -6782,19 +6782,19 @@
         <v>209.1574904497951</v>
       </c>
       <c r="K33" t="n">
-        <v>568.5567993495583</v>
+        <v>528.5461022909063</v>
       </c>
       <c r="L33" t="n">
-        <v>1105.450868551027</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="M33" t="n">
-        <v>1105.450868551027</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="N33" t="n">
-        <v>1825.107156737524</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="O33" t="n">
-        <v>1825.107156737524</v>
+        <v>1640.39663447415</v>
       </c>
       <c r="P33" t="n">
         <v>2092.918189778827</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2385.277976292461</v>
+        <v>561.9236400184168</v>
       </c>
       <c r="C34" t="n">
-        <v>2300.511208140759</v>
+        <v>477.1568718667144</v>
       </c>
       <c r="D34" t="n">
-        <v>2230.316444825582</v>
+        <v>406.9621085515375</v>
       </c>
       <c r="E34" t="n">
-        <v>2160.195982467093</v>
+        <v>336.8416461930483</v>
       </c>
       <c r="F34" t="n">
-        <v>2088.308397462374</v>
+        <v>264.9540611883297</v>
       </c>
       <c r="G34" t="n">
-        <v>2005.702782880039</v>
+        <v>182.3484466059945</v>
       </c>
       <c r="H34" t="n">
-        <v>1937.530468588577</v>
+        <v>114.1761323145323</v>
       </c>
       <c r="I34" t="n">
-        <v>1896.192358324266</v>
+        <v>72.83802205022189</v>
       </c>
       <c r="J34" t="n">
-        <v>1964.714491266613</v>
+        <v>141.3601549925687</v>
       </c>
       <c r="K34" t="n">
-        <v>2154.210512434466</v>
+        <v>330.856176160422</v>
       </c>
       <c r="L34" t="n">
-        <v>2432.689294978169</v>
+        <v>609.3349587041232</v>
       </c>
       <c r="M34" t="n">
-        <v>2734.996133099389</v>
+        <v>911.641796825344</v>
       </c>
       <c r="N34" t="n">
-        <v>3033.433548829919</v>
+        <v>1210.079212555873</v>
       </c>
       <c r="O34" t="n">
-        <v>3308.980708942966</v>
+        <v>1485.62637266892</v>
       </c>
       <c r="P34" t="n">
-        <v>3537.498729206298</v>
+        <v>1714.144392932252</v>
       </c>
       <c r="Q34" t="n">
-        <v>3641.901102511095</v>
+        <v>1818.546766237049</v>
       </c>
       <c r="R34" t="n">
-        <v>3612.884852422485</v>
+        <v>1789.530516148439</v>
       </c>
       <c r="S34" t="n">
-        <v>3499.168406026808</v>
+        <v>1675.814069752763</v>
       </c>
       <c r="T34" t="n">
-        <v>3349.785359267152</v>
+        <v>1526.431022993107</v>
       </c>
       <c r="U34" t="n">
-        <v>3149.796376720592</v>
+        <v>1326.442040446548</v>
       </c>
       <c r="V34" t="n">
-        <v>2969.255381323725</v>
+        <v>1145.901045049681</v>
       </c>
       <c r="W34" t="n">
-        <v>2771.363329037211</v>
+        <v>948.0089927631666</v>
       </c>
       <c r="X34" t="n">
-        <v>2622.721356602503</v>
+        <v>799.367020328458</v>
       </c>
       <c r="Y34" t="n">
-        <v>2485.047645201454</v>
+        <v>661.6933089274097</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1792.857539075917</v>
+        <v>1925.125759935642</v>
       </c>
       <c r="C35" t="n">
-        <v>1485.120387361156</v>
+        <v>1617.388608220881</v>
       </c>
       <c r="D35" t="n">
-        <v>1185.117608360132</v>
+        <v>1317.385829219857</v>
       </c>
       <c r="E35" t="n">
-        <v>867.9724332589849</v>
+        <v>1000.24065411871</v>
       </c>
       <c r="F35" t="n">
-        <v>536.516344571271</v>
+        <v>668.7845654309963</v>
       </c>
       <c r="G35" t="n">
         <v>341.5285182829639</v>
@@ -6937,13 +6937,13 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J35" t="n">
-        <v>256.4480922804105</v>
+        <v>256.4480922804107</v>
       </c>
       <c r="K35" t="n">
-        <v>673.8218345773853</v>
+        <v>673.8218345773852</v>
       </c>
       <c r="L35" t="n">
-        <v>1239.581804282814</v>
+        <v>1239.581804282813</v>
       </c>
       <c r="M35" t="n">
         <v>1866.185803719484</v>
@@ -6964,25 +6964,25 @@
         <v>3641.901102511094</v>
       </c>
       <c r="S35" t="n">
-        <v>3571.498618413943</v>
+        <v>3641.901102511094</v>
       </c>
       <c r="T35" t="n">
-        <v>3435.486605446868</v>
+        <v>3505.889089544019</v>
       </c>
       <c r="U35" t="n">
-        <v>3265.209694350308</v>
+        <v>3397.477915210033</v>
       </c>
       <c r="V35" t="n">
-        <v>3008.541234836135</v>
+        <v>3140.80945569586</v>
       </c>
       <c r="W35" t="n">
-        <v>2722.98054958673</v>
+        <v>2855.248770446456</v>
       </c>
       <c r="X35" t="n">
-        <v>2418.966294302096</v>
+        <v>2551.234515161821</v>
       </c>
       <c r="Y35" t="n">
-        <v>2107.913935005005</v>
+        <v>2240.182155864731</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2144.171584738114</v>
+        <v>860.9052962555163</v>
       </c>
       <c r="C36" t="n">
-        <v>1993.517354298207</v>
+        <v>710.2510658156085</v>
       </c>
       <c r="D36" t="n">
-        <v>1863.428386919687</v>
+        <v>580.1620984370888</v>
       </c>
       <c r="E36" t="n">
-        <v>1726.981896030575</v>
+        <v>443.7156075479765</v>
       </c>
       <c r="F36" t="n">
-        <v>1602.550089913706</v>
+        <v>319.2838014311083</v>
       </c>
       <c r="G36" t="n">
-        <v>1482.740865919143</v>
+        <v>199.4745774365447</v>
       </c>
       <c r="H36" t="n">
-        <v>1396.863659351873</v>
+        <v>113.597370869275</v>
       </c>
       <c r="I36" t="n">
-        <v>1356.10431053282</v>
+        <v>72.83802205022189</v>
       </c>
       <c r="J36" t="n">
-        <v>1356.10431053282</v>
+        <v>72.83802205022189</v>
       </c>
       <c r="K36" t="n">
-        <v>1715.503619432583</v>
+        <v>432.2373309499852</v>
       </c>
       <c r="L36" t="n">
-        <v>1715.503619432583</v>
+        <v>969.1314001514536</v>
       </c>
       <c r="M36" t="n">
-        <v>2405.506510255574</v>
+        <v>1659.134290974444</v>
       </c>
       <c r="N36" t="n">
-        <v>3125.162798442071</v>
+        <v>2358.634814028496</v>
       </c>
       <c r="O36" t="n">
-        <v>3189.379547206418</v>
+        <v>2358.634814028496</v>
       </c>
       <c r="P36" t="n">
-        <v>3641.901102511094</v>
+        <v>2358.634814028496</v>
       </c>
       <c r="Q36" t="n">
-        <v>3641.901102511094</v>
+        <v>2358.634814028496</v>
       </c>
       <c r="R36" t="n">
-        <v>3633.542865214619</v>
+        <v>2350.276576732021</v>
       </c>
       <c r="S36" t="n">
-        <v>3503.266860520968</v>
+        <v>2220.000572038369</v>
       </c>
       <c r="T36" t="n">
-        <v>3327.293118127564</v>
+        <v>2044.026829644965</v>
       </c>
       <c r="U36" t="n">
-        <v>3117.246461249204</v>
+        <v>1833.980172766605</v>
       </c>
       <c r="V36" t="n">
-        <v>2894.70645962027</v>
+        <v>1611.440171137672</v>
       </c>
       <c r="W36" t="n">
-        <v>2664.589213753557</v>
+        <v>1381.322925270959</v>
       </c>
       <c r="X36" t="n">
-        <v>2475.282136103569</v>
+        <v>1192.01584762097</v>
       </c>
       <c r="Y36" t="n">
-        <v>2295.967919179076</v>
+        <v>1012.701630696478</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>561.9236400184169</v>
+        <v>561.9236400184168</v>
       </c>
       <c r="C37" t="n">
-        <v>477.1568718667145</v>
+        <v>477.1568718667144</v>
       </c>
       <c r="D37" t="n">
-        <v>406.9621085515376</v>
+        <v>406.9621085515375</v>
       </c>
       <c r="E37" t="n">
-        <v>336.8416461930485</v>
+        <v>336.8416461930483</v>
       </c>
       <c r="F37" t="n">
-        <v>264.9540611883298</v>
+        <v>264.9540611883297</v>
       </c>
       <c r="G37" t="n">
         <v>182.3484466059945</v>
@@ -7095,34 +7095,34 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J37" t="n">
-        <v>141.3601549925689</v>
+        <v>141.3601549925688</v>
       </c>
       <c r="K37" t="n">
-        <v>330.8561761604221</v>
+        <v>330.856176160422</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3349587041233</v>
+        <v>609.334958704124</v>
       </c>
       <c r="M37" t="n">
-        <v>911.6417968253439</v>
+        <v>911.6417968253446</v>
       </c>
       <c r="N37" t="n">
-        <v>1210.079212555873</v>
+        <v>1210.079212555874</v>
       </c>
       <c r="O37" t="n">
-        <v>1485.62637266892</v>
+        <v>1485.626372668921</v>
       </c>
       <c r="P37" t="n">
-        <v>1714.144392932252</v>
+        <v>1714.144392932253</v>
       </c>
       <c r="Q37" t="n">
-        <v>1818.546766237049</v>
+        <v>1818.54676623705</v>
       </c>
       <c r="R37" t="n">
-        <v>1789.530516148439</v>
+        <v>1789.53051614844</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.814069752763</v>
+        <v>1675.814069752764</v>
       </c>
       <c r="T37" t="n">
         <v>1526.431022993107</v>
@@ -7137,10 +7137,10 @@
         <v>948.0089927631666</v>
       </c>
       <c r="X37" t="n">
-        <v>799.3670203284581</v>
+        <v>799.367020328458</v>
       </c>
       <c r="Y37" t="n">
-        <v>661.6933089274098</v>
+        <v>661.6933089274097</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1792.857539075917</v>
+        <v>1925.125759935642</v>
       </c>
       <c r="C38" t="n">
         <v>1617.388608220881</v>
@@ -7201,25 +7201,25 @@
         <v>3641.901102511094</v>
       </c>
       <c r="S38" t="n">
-        <v>3571.498618413943</v>
+        <v>3641.901102511094</v>
       </c>
       <c r="T38" t="n">
-        <v>3435.486605446868</v>
+        <v>3505.889089544019</v>
       </c>
       <c r="U38" t="n">
-        <v>3265.209694350308</v>
+        <v>3335.612178447459</v>
       </c>
       <c r="V38" t="n">
-        <v>3008.541234836135</v>
+        <v>3140.80945569586</v>
       </c>
       <c r="W38" t="n">
-        <v>2722.98054958673</v>
+        <v>2855.248770446456</v>
       </c>
       <c r="X38" t="n">
-        <v>2418.966294302096</v>
+        <v>2551.234515161821</v>
       </c>
       <c r="Y38" t="n">
-        <v>2107.913935005005</v>
+        <v>2240.182155864731</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>72.83802205022189</v>
       </c>
       <c r="J39" t="n">
-        <v>72.83802205022189</v>
+        <v>209.1574904497951</v>
       </c>
       <c r="K39" t="n">
-        <v>432.2373309499852</v>
+        <v>568.5567993495584</v>
       </c>
       <c r="L39" t="n">
-        <v>969.1314001514537</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="M39" t="n">
-        <v>1638.978525841999</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="N39" t="n">
-        <v>2358.634814028496</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="O39" t="n">
-        <v>2358.634814028496</v>
+        <v>1640.39663447415</v>
       </c>
       <c r="P39" t="n">
-        <v>2358.634814028496</v>
+        <v>2092.918189778827</v>
       </c>
       <c r="Q39" t="n">
         <v>2358.634814028496</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2385.277976292461</v>
+        <v>561.9236400184168</v>
       </c>
       <c r="C40" t="n">
-        <v>2300.511208140759</v>
+        <v>477.1568718667144</v>
       </c>
       <c r="D40" t="n">
-        <v>2230.316444825582</v>
+        <v>406.9621085515375</v>
       </c>
       <c r="E40" t="n">
-        <v>2160.195982467093</v>
+        <v>336.8416461930483</v>
       </c>
       <c r="F40" t="n">
-        <v>2088.308397462374</v>
+        <v>264.9540611883297</v>
       </c>
       <c r="G40" t="n">
-        <v>2005.702782880039</v>
+        <v>182.3484466059945</v>
       </c>
       <c r="H40" t="n">
-        <v>1937.530468588577</v>
+        <v>114.1761323145323</v>
       </c>
       <c r="I40" t="n">
-        <v>1896.192358324266</v>
+        <v>72.83802205022189</v>
       </c>
       <c r="J40" t="n">
-        <v>1964.714491266613</v>
+        <v>141.3601549925688</v>
       </c>
       <c r="K40" t="n">
-        <v>2154.210512434467</v>
+        <v>330.856176160422</v>
       </c>
       <c r="L40" t="n">
-        <v>2432.689294978168</v>
+        <v>609.3349587041232</v>
       </c>
       <c r="M40" t="n">
-        <v>2734.996133099389</v>
+        <v>911.6417968253438</v>
       </c>
       <c r="N40" t="n">
-        <v>3033.433548829918</v>
+        <v>1210.079212555873</v>
       </c>
       <c r="O40" t="n">
-        <v>3308.980708942965</v>
+        <v>1485.62637266892</v>
       </c>
       <c r="P40" t="n">
-        <v>3537.498729206297</v>
+        <v>1714.144392932252</v>
       </c>
       <c r="Q40" t="n">
-        <v>3641.901102511094</v>
+        <v>1818.54676623705</v>
       </c>
       <c r="R40" t="n">
-        <v>3612.884852422484</v>
+        <v>1789.53051614844</v>
       </c>
       <c r="S40" t="n">
-        <v>3499.168406026808</v>
+        <v>1675.814069752764</v>
       </c>
       <c r="T40" t="n">
-        <v>3349.785359267152</v>
+        <v>1526.431022993107</v>
       </c>
       <c r="U40" t="n">
-        <v>3149.796376720592</v>
+        <v>1326.442040446548</v>
       </c>
       <c r="V40" t="n">
-        <v>2969.255381323725</v>
+        <v>1145.901045049681</v>
       </c>
       <c r="W40" t="n">
-        <v>2771.363329037211</v>
+        <v>948.0089927631666</v>
       </c>
       <c r="X40" t="n">
-        <v>2622.721356602503</v>
+        <v>799.367020328458</v>
       </c>
       <c r="Y40" t="n">
-        <v>2485.047645201454</v>
+        <v>661.6933089274097</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1876.840484928561</v>
+        <v>2402.913485723565</v>
       </c>
       <c r="C41" t="n">
-        <v>1483.664983431492</v>
+        <v>2009.737984226496</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.22385464816</v>
+        <v>1624.296855443164</v>
       </c>
       <c r="E41" t="n">
-        <v>695.6403297647041</v>
+        <v>1221.713330559708</v>
       </c>
       <c r="F41" t="n">
-        <v>278.7458912946819</v>
+        <v>804.8188920896857</v>
       </c>
       <c r="G41" t="n">
-        <v>193.1187447384575</v>
+        <v>392.124495159345</v>
       </c>
       <c r="H41" t="n">
-        <v>193.1187447384575</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="I41" t="n">
-        <v>72.83802205022189</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="J41" t="n">
         <v>256.4480922804108</v>
@@ -7420,43 +7420,43 @@
         <v>1239.581804282814</v>
       </c>
       <c r="M41" t="n">
-        <v>1866.185803719484</v>
+        <v>1866.185803719485</v>
       </c>
       <c r="N41" t="n">
-        <v>2475.904429165146</v>
+        <v>2475.904429165147</v>
       </c>
       <c r="O41" t="n">
-        <v>2993.286810308193</v>
+        <v>2993.286810308194</v>
       </c>
       <c r="P41" t="n">
-        <v>3407.484575995241</v>
+        <v>3407.484575995242</v>
       </c>
       <c r="Q41" t="n">
         <v>3641.901102511095</v>
       </c>
       <c r="R41" t="n">
-        <v>3641.901102511095</v>
+        <v>3633.328718551577</v>
       </c>
       <c r="S41" t="n">
-        <v>3486.060268631636</v>
+        <v>3633.328718551577</v>
       </c>
       <c r="T41" t="n">
-        <v>3264.609905882252</v>
+        <v>3411.878355802193</v>
       </c>
       <c r="U41" t="n">
-        <v>3008.894645003383</v>
+        <v>3411.878355802193</v>
       </c>
       <c r="V41" t="n">
-        <v>2666.787835706902</v>
+        <v>3411.878355802193</v>
       </c>
       <c r="W41" t="n">
-        <v>2666.787835706902</v>
+        <v>3411.878355802193</v>
       </c>
       <c r="X41" t="n">
-        <v>2277.335230639958</v>
+        <v>3199.898940514361</v>
       </c>
       <c r="Y41" t="n">
-        <v>2277.335230639958</v>
+        <v>2803.408231434962</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>113.597370869275</v>
       </c>
       <c r="I42" t="n">
-        <v>72.83802205022189</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="J42" t="n">
-        <v>209.1574904497951</v>
+        <v>169.1467933911429</v>
       </c>
       <c r="K42" t="n">
-        <v>568.5567993495584</v>
+        <v>528.5461022909062</v>
       </c>
       <c r="L42" t="n">
-        <v>920.7403462876529</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="M42" t="n">
-        <v>920.7403462876529</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.39663447415</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="O42" t="n">
         <v>1640.39663447415</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2800.345904241435</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="C43" t="n">
-        <v>2800.345904241435</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="D43" t="n">
-        <v>2677.657837664716</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="E43" t="n">
-        <v>2677.657837664716</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="F43" t="n">
-        <v>2677.657837664716</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="G43" t="n">
-        <v>2677.657837664716</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="H43" t="n">
-        <v>2677.657837664716</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="I43" t="n">
-        <v>2550.881377618097</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="J43" t="n">
-        <v>2550.881377618097</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="K43" t="n">
-        <v>2656.63927216431</v>
+        <v>178.5959165964348</v>
       </c>
       <c r="L43" t="n">
-        <v>2851.37992808637</v>
+        <v>373.3365725184956</v>
       </c>
       <c r="M43" t="n">
-        <v>3069.948639585951</v>
+        <v>591.9052840180758</v>
       </c>
       <c r="N43" t="n">
-        <v>3284.64792869484</v>
+        <v>806.604573126965</v>
       </c>
       <c r="O43" t="n">
-        <v>3476.456962186246</v>
+        <v>998.4136066183711</v>
       </c>
       <c r="P43" t="n">
-        <v>3621.236855827938</v>
+        <v>1143.193500260063</v>
       </c>
       <c r="Q43" t="n">
-        <v>3641.901102511095</v>
+        <v>1163.85774694322</v>
       </c>
       <c r="R43" t="n">
-        <v>3641.901102511095</v>
+        <v>1163.85774694322</v>
       </c>
       <c r="S43" t="n">
-        <v>3442.74630633311</v>
+        <v>1163.85774694322</v>
       </c>
       <c r="T43" t="n">
-        <v>3442.74630633311</v>
+        <v>929.0363504012552</v>
       </c>
       <c r="U43" t="n">
-        <v>3442.74630633311</v>
+        <v>643.6090180723876</v>
       </c>
       <c r="V43" t="n">
-        <v>3442.74630633311</v>
+        <v>377.6296728932118</v>
       </c>
       <c r="W43" t="n">
-        <v>3442.74630633311</v>
+        <v>94.29927082438945</v>
       </c>
       <c r="X43" t="n">
-        <v>3208.665984116093</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="Y43" t="n">
-        <v>2985.553922932736</v>
+        <v>72.83802205022191</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2142.851944036559</v>
+        <v>2113.356233356875</v>
       </c>
       <c r="C44" t="n">
-        <v>1749.676442539489</v>
+        <v>2113.356233356875</v>
       </c>
       <c r="D44" t="n">
-        <v>1364.235313756157</v>
+        <v>1727.915104573543</v>
       </c>
       <c r="E44" t="n">
-        <v>961.6517888727012</v>
+        <v>1341.994053247944</v>
       </c>
       <c r="F44" t="n">
-        <v>544.757350402679</v>
+        <v>925.0996147779213</v>
       </c>
       <c r="G44" t="n">
-        <v>392.124495159345</v>
+        <v>512.4052178475806</v>
       </c>
       <c r="H44" t="n">
-        <v>72.83802205022189</v>
+        <v>193.1187447384575</v>
       </c>
       <c r="I44" t="n">
-        <v>72.83802205022189</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="J44" t="n">
         <v>256.4480922804108</v>
       </c>
       <c r="K44" t="n">
-        <v>673.8218345773851</v>
+        <v>673.8218345773853</v>
       </c>
       <c r="L44" t="n">
         <v>1239.581804282814</v>
       </c>
       <c r="M44" t="n">
-        <v>1866.185803719484</v>
+        <v>1866.185803719485</v>
       </c>
       <c r="N44" t="n">
-        <v>2475.904429165146</v>
+        <v>2475.904429165147</v>
       </c>
       <c r="O44" t="n">
-        <v>2993.286810308193</v>
+        <v>2993.286810308194</v>
       </c>
       <c r="P44" t="n">
-        <v>3407.484575995241</v>
+        <v>3407.484575995242</v>
       </c>
       <c r="Q44" t="n">
         <v>3641.901102511095</v>
@@ -7684,16 +7684,16 @@
         <v>3641.901102511095</v>
       </c>
       <c r="V44" t="n">
-        <v>3299.794293214613</v>
+        <v>3299.794293214614</v>
       </c>
       <c r="W44" t="n">
-        <v>2928.795258182901</v>
+        <v>3299.794293214614</v>
       </c>
       <c r="X44" t="n">
-        <v>2539.342653115958</v>
+        <v>2910.341688147671</v>
       </c>
       <c r="Y44" t="n">
-        <v>2142.851944036559</v>
+        <v>2513.850979068271</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>113.597370869275</v>
       </c>
       <c r="I45" t="n">
-        <v>72.83802205022189</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="J45" t="n">
         <v>209.1574904497951</v>
@@ -7733,19 +7733,19 @@
         <v>568.5567993495584</v>
       </c>
       <c r="L45" t="n">
-        <v>568.5567993495584</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="M45" t="n">
-        <v>1258.559690172548</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="N45" t="n">
-        <v>1978.215978359045</v>
+        <v>1065.440171492375</v>
       </c>
       <c r="O45" t="n">
-        <v>2358.634814028496</v>
+        <v>1640.39663447415</v>
       </c>
       <c r="P45" t="n">
-        <v>2358.634814028496</v>
+        <v>2092.918189778827</v>
       </c>
       <c r="Q45" t="n">
         <v>2358.634814028496</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3043.694059138992</v>
+        <v>226.4486861239926</v>
       </c>
       <c r="C46" t="n">
-        <v>3043.694059138992</v>
+        <v>226.4486861239926</v>
       </c>
       <c r="D46" t="n">
-        <v>2888.060946041506</v>
+        <v>226.4486861239926</v>
       </c>
       <c r="E46" t="n">
-        <v>2888.060946041506</v>
+        <v>226.4486861239926</v>
       </c>
       <c r="F46" t="n">
-        <v>2888.060946041506</v>
+        <v>226.4486861239926</v>
       </c>
       <c r="G46" t="n">
-        <v>2720.016981676863</v>
+        <v>226.4486861239926</v>
       </c>
       <c r="H46" t="n">
-        <v>2566.406317603092</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="I46" t="n">
-        <v>2566.406317603092</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="J46" t="n">
-        <v>2550.881377618097</v>
+        <v>72.83802205022191</v>
       </c>
       <c r="K46" t="n">
-        <v>2656.63927216431</v>
+        <v>178.5959165964348</v>
       </c>
       <c r="L46" t="n">
-        <v>2851.37992808637</v>
+        <v>373.3365725184956</v>
       </c>
       <c r="M46" t="n">
-        <v>3069.948639585951</v>
+        <v>591.9052840180758</v>
       </c>
       <c r="N46" t="n">
-        <v>3284.64792869484</v>
+        <v>806.604573126965</v>
       </c>
       <c r="O46" t="n">
-        <v>3476.456962186246</v>
+        <v>998.4136066183711</v>
       </c>
       <c r="P46" t="n">
-        <v>3621.236855827938</v>
+        <v>1143.193500260063</v>
       </c>
       <c r="Q46" t="n">
-        <v>3641.901102511095</v>
+        <v>1163.85774694322</v>
       </c>
       <c r="R46" t="n">
-        <v>3641.901102511095</v>
+        <v>1163.85774694322</v>
       </c>
       <c r="S46" t="n">
-        <v>3641.901102511095</v>
+        <v>1163.85774694322</v>
       </c>
       <c r="T46" t="n">
-        <v>3407.07970596913</v>
+        <v>1011.935685849053</v>
       </c>
       <c r="U46" t="n">
-        <v>3407.07970596913</v>
+        <v>726.5083535201852</v>
       </c>
       <c r="V46" t="n">
-        <v>3327.024461207814</v>
+        <v>460.5290083410094</v>
       </c>
       <c r="W46" t="n">
-        <v>3043.694059138992</v>
+        <v>460.5290083410094</v>
       </c>
       <c r="X46" t="n">
-        <v>3043.694059138992</v>
+        <v>226.4486861239926</v>
       </c>
       <c r="Y46" t="n">
-        <v>3043.694059138992</v>
+        <v>226.4486861239926</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>129.8911706504834</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>165.9736638158137</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>162.4505456830493</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
@@ -7996,10 +7996,10 @@
         <v>162.2893315094184</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>163.0269413262472</v>
       </c>
       <c r="Q2" t="n">
-        <v>156.7100311265294</v>
+        <v>157.2241925037142</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8066,19 +8066,19 @@
         <v>102.7858409422402</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>105.1126161346339</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>97.58344556230394</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>99.80885890463665</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.1994858640513</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8139,7 +8139,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K4" t="n">
-        <v>83.85861781084799</v>
+        <v>96.58411189616999</v>
       </c>
       <c r="L4" t="n">
         <v>100.4005336681269</v>
@@ -8148,16 +8148,16 @@
         <v>103.0272536512653</v>
       </c>
       <c r="N4" t="n">
-        <v>95.72109798772357</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O4" t="n">
-        <v>102.2080827018351</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P4" t="n">
-        <v>89.52320263194594</v>
+        <v>98.27777132993073</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>129.8911706504834</v>
       </c>
       <c r="K5" t="n">
-        <v>155.7838972645594</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>165.459502438629</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>162.4505456830493</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>162.2893315094184</v>
       </c>
       <c r="P5" t="n">
         <v>163.0269413262472</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>157.2241925037142</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,16 +8294,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>94.65579004147062</v>
       </c>
       <c r="K6" t="n">
         <v>102.3224294186553</v>
       </c>
       <c r="L6" t="n">
-        <v>102.2716795650555</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>105.1126161346339</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
@@ -8312,7 +8312,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>99.80885890463665</v>
       </c>
       <c r="Q6" t="n">
         <v>103.713647241236</v>
@@ -8376,25 +8376,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K7" t="n">
-        <v>96.58411189616999</v>
+        <v>96.06995051898527</v>
       </c>
       <c r="L7" t="n">
-        <v>87.67503958280489</v>
+        <v>100.4005336681269</v>
       </c>
       <c r="M7" t="n">
-        <v>99.05632826392807</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N7" t="n">
-        <v>82.99560390240157</v>
+        <v>95.72109798772357</v>
       </c>
       <c r="O7" t="n">
         <v>102.7222440790198</v>
       </c>
       <c r="P7" t="n">
-        <v>102.2486967172679</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q7" t="n">
-        <v>101.9350150692923</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>151.6367735386038</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>370.3946742050441</v>
       </c>
       <c r="N8" t="n">
         <v>379.0794664759352</v>
@@ -8470,10 +8470,10 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8534,25 +8534,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L9" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N9" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>199.0996236985014</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8771,19 +8771,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>49.53616479036678</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>538.0960931596057</v>
       </c>
       <c r="M12" t="n">
-        <v>29.52728245708065</v>
+        <v>29.5272824570806</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>20.84856035321936</v>
       </c>
       <c r="O12" t="n">
-        <v>210.1144338844399</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8932,7 +8932,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987031</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8944,7 +8944,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475126</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>156.2871696172472</v>
       </c>
       <c r="K15" t="n">
-        <v>49.53616479036678</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>36.19369705575137</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9343704426886</v>
+        <v>29.5272824570806</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>20.84856035321936</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>59.319938312703</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>59.00558240419617</v>
+        <v>156.2871696172478</v>
       </c>
       <c r="K18" t="n">
-        <v>49.53616479036675</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>36.19369705575134</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>29.52728245708065</v>
       </c>
       <c r="N18" t="n">
-        <v>326.5043771402524</v>
+        <v>20.84856035321941</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9482,19 +9482,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>49.53616479036674</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>57.99164151521359</v>
+        <v>538.0960931596063</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>29.52728245708065</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>20.84856035321941</v>
       </c>
       <c r="O21" t="n">
-        <v>33.66111404970293</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9716,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>59.00558240419618</v>
+        <v>90.74478812880574</v>
       </c>
       <c r="K24" t="n">
-        <v>353.7595486156317</v>
+        <v>49.53616479036678</v>
       </c>
       <c r="L24" t="n">
-        <v>36.19369705575137</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>20.84856035321941</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>39.70943897256781</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>59.319938312703</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>59.00558240419618</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>49.53616479036678</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>36.19369705575137</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>29.52728245708065</v>
       </c>
       <c r="N27" t="n">
-        <v>594.9050076954744</v>
+        <v>561.1978188614245</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>33.66111404970298</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>59.319938312703</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10193,25 +10193,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>49.53616479036678</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>202.7206481541741</v>
+        <v>538.0960931596063</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>29.52728245708065</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>20.84856035321941</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>39.70943897256781</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>59.319938312703</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10430,7 +10430,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>372.1509242258327</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10439,13 +10439,13 @@
         <v>29.52728245708065</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>20.84856035321941</v>
       </c>
       <c r="O33" t="n">
-        <v>33.66111404970298</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>310.2256339637828</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10670,19 +10670,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>36.19369705575137</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>727.4147452563024</v>
       </c>
       <c r="O36" t="n">
-        <v>98.52651684197258</v>
+        <v>33.66111404970298</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>39.70943897256781</v>
       </c>
       <c r="Q36" t="n">
         <v>59.319938312703</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>59.00558240419617</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>538.0960931596062</v>
       </c>
       <c r="M39" t="n">
-        <v>706.1405407303585</v>
+        <v>29.52728245708061</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>20.84856035321937</v>
       </c>
       <c r="O39" t="n">
-        <v>33.66111404970295</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>39.70943897256777</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>59.31993831270297</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11068,7 +11068,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488184</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11138,22 +11138,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>156.2871696172476</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>391.934653558877</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>29.52728245708061</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>20.84856035321937</v>
       </c>
       <c r="O42" t="n">
-        <v>33.66111404970295</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11302,7 +11302,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987028</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11381,22 +11381,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>36.19369705575134</v>
+        <v>538.0960931596062</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>29.52728245708061</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>20.84856035321937</v>
       </c>
       <c r="O45" t="n">
-        <v>417.922564220865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>39.70943897256777</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>59.31993831270297</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>130.9455386511276</v>
       </c>
       <c r="V11" t="n">
-        <v>130.9455386511275</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>130.9455386511279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>130.9455386511276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>130.9455386511279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>130.9455386511275</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>26.75313021808006</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.49394917686792</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.69845925617952</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>130.945538651128</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>130.9455386511279</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.49394917686794</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.69845925617953</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>26.75313021808104</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>130.9455386511279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>130.9455386511277</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>130.9455386511279</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>130.945538651128</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>130.9455386511279</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>69.69845925617953</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>61.2470793949485</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>130.9455386511281</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>69.69845925617952</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>61.24707939494849</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>323.7965778703751</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>316.0936083780318</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>119.0779154613532</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>8.48666011992329</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>154.2824255406648</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1581082700802</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>175.6984578813199</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>32.6155960555582</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25806,7 +25806,7 @@
         <v>152.0745574330329</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>125.5086954461525</v>
       </c>
       <c r="J43" t="n">
         <v>15.369690585145</v>
@@ -25836,25 +25836,25 @@
         <v>113.3100538722094</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.1632482162047</v>
       </c>
       <c r="T43" t="n">
-        <v>232.473182576545</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5730590055789</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>210.4928827084208</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>16.49584882227799</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>257.4609262701366</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>119.0779154613532</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3635247209971</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>125.5086954461525</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>15.369690585145</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>197.1632482162047</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.07034209331962</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5730590055789</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0648594136809</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>728906.2919791602</v>
+        <v>728906.29197916</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>728906.2919791599</v>
+        <v>728906.29197916</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>728906.2919791602</v>
+        <v>728906.2919791599</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>728906.2919791602</v>
+        <v>728906.2919791599</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>601343.9694564709</v>
+        <v>601343.9694564708</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649195.8411360841</v>
+        <v>649195.8411360842</v>
       </c>
       <c r="C2" t="n">
-        <v>649195.8411360841</v>
+        <v>649195.8411360842</v>
       </c>
       <c r="D2" t="n">
-        <v>649195.8411360843</v>
+        <v>649195.8411360844</v>
       </c>
       <c r="E2" t="n">
-        <v>639814.9027471166</v>
+        <v>639814.9027471185</v>
       </c>
       <c r="F2" t="n">
-        <v>639814.9027471184</v>
+        <v>639814.9027471168</v>
       </c>
       <c r="G2" t="n">
         <v>639814.9027471184</v>
@@ -26337,22 +26337,22 @@
         <v>639814.9027471183</v>
       </c>
       <c r="J2" t="n">
-        <v>639814.9027471168</v>
+        <v>639814.9027471165</v>
       </c>
       <c r="K2" t="n">
-        <v>639814.9027471168</v>
+        <v>639814.9027471185</v>
       </c>
       <c r="L2" t="n">
-        <v>639814.9027471183</v>
+        <v>639814.9027471185</v>
       </c>
       <c r="M2" t="n">
-        <v>639814.9027471184</v>
+        <v>639814.9027471179</v>
       </c>
       <c r="N2" t="n">
-        <v>639814.9027471181</v>
+        <v>639814.902747118</v>
       </c>
       <c r="O2" t="n">
-        <v>504748.9141936818</v>
+        <v>504748.9141936821</v>
       </c>
       <c r="P2" t="n">
         <v>504748.914193682</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4264.605754355376</v>
+        <v>4264.605754355363</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>70996.72220204823</v>
+        <v>70996.7222020482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>125253.6308168553</v>
       </c>
       <c r="P4" t="n">
-        <v>125253.6308168552</v>
+        <v>125253.6308168553</v>
       </c>
     </row>
     <row r="5">
@@ -26484,28 +26484,28 @@
         <v>64982.17980342828</v>
       </c>
       <c r="G5" t="n">
-        <v>64982.17980342828</v>
+        <v>64982.17980342827</v>
       </c>
       <c r="H5" t="n">
-        <v>64982.17980342828</v>
+        <v>64982.17980342827</v>
       </c>
       <c r="I5" t="n">
         <v>64982.17980342827</v>
       </c>
       <c r="J5" t="n">
-        <v>64982.17980342828</v>
+        <v>64982.17980342827</v>
       </c>
       <c r="K5" t="n">
         <v>64982.17980342827</v>
       </c>
       <c r="L5" t="n">
-        <v>64982.17980342828</v>
+        <v>64982.17980342827</v>
       </c>
       <c r="M5" t="n">
         <v>64982.17980342827</v>
       </c>
       <c r="N5" t="n">
-        <v>64982.17980342827</v>
+        <v>64982.17980342828</v>
       </c>
       <c r="O5" t="n">
         <v>57871.29034185789</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>249292.9195798368</v>
+        <v>249292.919579837</v>
       </c>
       <c r="C6" t="n">
-        <v>253557.5253341922</v>
+        <v>253557.5253341923</v>
       </c>
       <c r="D6" t="n">
-        <v>211538.1864092575</v>
+        <v>211538.1864092576</v>
       </c>
       <c r="E6" t="n">
-        <v>200.5099203863865</v>
+        <v>174.4517581966093</v>
       </c>
       <c r="F6" t="n">
-        <v>363718.1050768465</v>
+        <v>363692.0469146533</v>
       </c>
       <c r="G6" t="n">
-        <v>363718.1050768465</v>
+        <v>363692.046914655</v>
       </c>
       <c r="H6" t="n">
-        <v>363718.1050768466</v>
+        <v>363692.046914655</v>
       </c>
       <c r="I6" t="n">
-        <v>363718.1050768464</v>
+        <v>363692.0469146548</v>
       </c>
       <c r="J6" t="n">
-        <v>292721.3828747967</v>
+        <v>292695.3247126049</v>
       </c>
       <c r="K6" t="n">
-        <v>363718.1050768449</v>
+        <v>363692.0469146551</v>
       </c>
       <c r="L6" t="n">
-        <v>308737.7599417048</v>
+        <v>308711.7017795134</v>
       </c>
       <c r="M6" t="n">
-        <v>194131.2193376307</v>
+        <v>194105.1611754386</v>
       </c>
       <c r="N6" t="n">
-        <v>363718.1050768463</v>
+        <v>363692.0469146546</v>
       </c>
       <c r="O6" t="n">
-        <v>321623.9930349687</v>
+        <v>321222.75157124</v>
       </c>
       <c r="P6" t="n">
-        <v>321623.9930349689</v>
+        <v>321222.75157124</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>115.3391552151033</v>
+      </c>
+      <c r="F3" t="n">
+        <v>115.3391552151033</v>
+      </c>
+      <c r="G3" t="n">
         <v>115.3391552151032</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>115.3391552151032</v>
-      </c>
-      <c r="G3" t="n">
-        <v>115.3391552151033</v>
-      </c>
-      <c r="H3" t="n">
-        <v>115.3391552151033</v>
       </c>
       <c r="I3" t="n">
         <v>115.3391552151032</v>
@@ -26804,22 +26804,22 @@
         <v>910.4752756277737</v>
       </c>
       <c r="G4" t="n">
-        <v>910.4752756277737</v>
+        <v>910.4752756277736</v>
       </c>
       <c r="H4" t="n">
-        <v>910.4752756277737</v>
+        <v>910.4752756277736</v>
       </c>
       <c r="I4" t="n">
         <v>910.4752756277736</v>
       </c>
       <c r="J4" t="n">
-        <v>910.4752756277737</v>
+        <v>910.4752756277736</v>
       </c>
       <c r="K4" t="n">
         <v>910.4752756277736</v>
       </c>
       <c r="L4" t="n">
-        <v>910.4752756277737</v>
+        <v>910.4752756277736</v>
       </c>
       <c r="M4" t="n">
         <v>910.4752756277736</v>
@@ -26828,10 +26828,10 @@
         <v>910.4752756277736</v>
       </c>
       <c r="O4" t="n">
-        <v>910.4752756277737</v>
+        <v>910.4752756277738</v>
       </c>
       <c r="P4" t="n">
-        <v>910.4752756277737</v>
+        <v>910.4752756277738</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>115.3391552151032</v>
+        <v>115.3391552151033</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>12.72549408532211</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>217.2354810528292</v>
       </c>
       <c r="M4" t="n">
-        <v>680.5143004896225</v>
+        <v>680.5143004896224</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>376.5182523967767</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>385.8321955492989</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8225127665252</v>
+        <v>396.3056338715548</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>125.7451305481082</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>152.1229254230379</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27508,25 +27508,25 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>122.3727551387782</v>
+        <v>120.8558762438078</v>
       </c>
       <c r="T3" t="n">
         <v>162.4884795977586</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>195.2370178028226</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>209.105986422292</v>
       </c>
       <c r="W3" t="n">
-        <v>215.090579322724</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>164.7955806699258</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>170.6304444190663</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27548,7 +27548,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>143.0271813538348</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27587,7 +27587,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>188.0624288939541</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27599,13 +27599,13 @@
         <v>250.594057642062</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>267.7716039628122</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>220.5309038044951</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.6723253811714</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>396.3802024011461</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>396.3056338715548</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>309.6336047388226</v>
       </c>
       <c r="I5" t="n">
         <v>124.2282516531378</v>
@@ -27672,7 +27672,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>240.4697081844254</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27697,25 +27697,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>136.4221940501867</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>123.8734107898695</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>106.1337256635322</v>
       </c>
       <c r="H6" t="n">
         <v>74.68894815008308</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>36.16788736288552</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>12.46925748056448</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -27751,7 +27751,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>195.2370178028226</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -27788,10 +27788,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>155.3628981711973</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>142.7151503377693</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27824,19 +27824,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>188.0624288939541</v>
       </c>
       <c r="T7" t="n">
-        <v>220.6363672281262</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>250.594057642062</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>267.7716039628122</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27864,13 +27864,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>155.9055776048241</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27909,7 +27909,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27918,7 +27918,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>242.3780587341225</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>162.5648268504537</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>56.19901399253958</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.013610544723207</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
         <v>220.3146016126436</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28031,7 +28031,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>81.95032115351732</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28067,19 +28067,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>18.46188697250406</v>
       </c>
     </row>
     <row r="11">
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>8.486660119923307</v>
+        <v>8.486660119923283</v>
       </c>
       <c r="S11" t="n">
         <v>84.58396628448527</v>
@@ -28374,7 +28374,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>8.486660119923307</v>
+        <v>8.486660119923283</v>
       </c>
       <c r="S14" t="n">
         <v>84.58396628448527</v>
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>8.48666011992329</v>
+        <v>8.486660119923307</v>
       </c>
       <c r="S17" t="n">
         <v>84.58396628448527</v>
@@ -28754,7 +28754,7 @@
         <v>84.58396628448527</v>
       </c>
       <c r="M19" t="n">
-        <v>84.58396628448527</v>
+        <v>84.58396628448605</v>
       </c>
       <c r="N19" t="n">
         <v>84.58396628448527</v>
@@ -28848,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>8.486660119923283</v>
+        <v>8.486660119923307</v>
       </c>
       <c r="S20" t="n">
         <v>84.58396628448527</v>
@@ -28982,7 +28982,7 @@
         <v>84.58396628448527</v>
       </c>
       <c r="J22" t="n">
-        <v>84.58396628448604</v>
+        <v>84.58396628448527</v>
       </c>
       <c r="K22" t="n">
         <v>84.58396628448527</v>
@@ -28991,7 +28991,7 @@
         <v>84.58396628448527</v>
       </c>
       <c r="M22" t="n">
-        <v>84.58396628448527</v>
+        <v>84.58396628448605</v>
       </c>
       <c r="N22" t="n">
         <v>84.58396628448527</v>
@@ -29237,7 +29237,7 @@
         <v>84.58396628448527</v>
       </c>
       <c r="P25" t="n">
-        <v>84.58396628448617</v>
+        <v>84.58396628448527</v>
       </c>
       <c r="Q25" t="n">
         <v>84.58396628448527</v>
@@ -29936,7 +29936,7 @@
         <v>84.58396628448527</v>
       </c>
       <c r="L34" t="n">
-        <v>84.58396628448654</v>
+        <v>84.58396628448527</v>
       </c>
       <c r="M34" t="n">
         <v>84.58396628448527</v>
@@ -30173,7 +30173,7 @@
         <v>84.58396628448527</v>
       </c>
       <c r="L37" t="n">
-        <v>84.58396628448527</v>
+        <v>84.58396628448608</v>
       </c>
       <c r="M37" t="n">
         <v>84.58396628448527</v>
@@ -30407,7 +30407,7 @@
         <v>84.58396628448527</v>
       </c>
       <c r="K40" t="n">
-        <v>84.58396628448601</v>
+        <v>84.58396628448527</v>
       </c>
       <c r="L40" t="n">
         <v>84.58396628448527</v>
@@ -30425,7 +30425,7 @@
         <v>84.58396628448527</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.58396628448527</v>
+        <v>84.58396628448629</v>
       </c>
       <c r="R40" t="n">
         <v>84.58396628448527</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4636749958396107</v>
+        <v>0.4636749958396111</v>
       </c>
       <c r="H11" t="n">
-        <v>4.748611551142414</v>
+        <v>4.748611551142418</v>
       </c>
       <c r="I11" t="n">
-        <v>17.87583027710661</v>
+        <v>17.87583027710662</v>
       </c>
       <c r="J11" t="n">
-        <v>39.3538356781422</v>
+        <v>39.35383567814223</v>
       </c>
       <c r="K11" t="n">
-        <v>58.98119825203293</v>
+        <v>58.98119825203297</v>
       </c>
       <c r="L11" t="n">
-        <v>73.17139190595942</v>
+        <v>73.1713919059595</v>
       </c>
       <c r="M11" t="n">
-        <v>81.4172721132221</v>
+        <v>81.41727211322217</v>
       </c>
       <c r="N11" t="n">
-        <v>82.73468869515141</v>
+        <v>82.73468869515148</v>
       </c>
       <c r="O11" t="n">
-        <v>78.12402045527126</v>
+        <v>78.12402045527134</v>
       </c>
       <c r="P11" t="n">
-        <v>66.67704399548087</v>
+        <v>66.67704399548093</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.0716832069748</v>
+        <v>50.07168320697484</v>
       </c>
       <c r="R11" t="n">
-        <v>29.12632445740997</v>
+        <v>29.12632445741</v>
       </c>
       <c r="S11" t="n">
-        <v>10.56599396769514</v>
+        <v>10.56599396769515</v>
       </c>
       <c r="T11" t="n">
-        <v>2.029737294287897</v>
+        <v>2.029737294287898</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03709399966716885</v>
+        <v>0.03709399966716888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2480879942362598</v>
+        <v>0.24808799423626</v>
       </c>
       <c r="H12" t="n">
-        <v>2.396007733808089</v>
+        <v>2.396007733808091</v>
       </c>
       <c r="I12" t="n">
-        <v>8.541626117344912</v>
+        <v>8.541626117344919</v>
       </c>
       <c r="J12" t="n">
-        <v>23.43887492913716</v>
+        <v>23.43887492913719</v>
       </c>
       <c r="K12" t="n">
-        <v>40.06077054296657</v>
+        <v>40.06077054296661</v>
       </c>
       <c r="L12" t="n">
-        <v>53.86664980116686</v>
+        <v>53.8666498011669</v>
       </c>
       <c r="M12" t="n">
-        <v>62.85983959223126</v>
+        <v>62.85983959223132</v>
       </c>
       <c r="N12" t="n">
-        <v>64.52355250094725</v>
+        <v>64.5235525009473</v>
       </c>
       <c r="O12" t="n">
-        <v>59.02644483918591</v>
+        <v>59.02644483918596</v>
       </c>
       <c r="P12" t="n">
-        <v>47.37392584674684</v>
+        <v>47.37392584674689</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.66821484321099</v>
+        <v>31.66821484321102</v>
       </c>
       <c r="R12" t="n">
-        <v>15.40321774740568</v>
+        <v>15.40321774740569</v>
       </c>
       <c r="S12" t="n">
-        <v>4.608125682414736</v>
+        <v>4.608125682414739</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9999687136101872</v>
+        <v>0.9999687136101881</v>
       </c>
       <c r="U12" t="n">
-        <v>0.016321578568175</v>
+        <v>0.01632157856817501</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2079886405518255</v>
+        <v>0.2079886405518257</v>
       </c>
       <c r="H13" t="n">
-        <v>1.84920809508805</v>
+        <v>1.849208095088052</v>
       </c>
       <c r="I13" t="n">
-        <v>6.254785663140354</v>
+        <v>6.25478566314036</v>
       </c>
       <c r="J13" t="n">
-        <v>14.70479688701406</v>
+        <v>14.70479688701407</v>
       </c>
       <c r="K13" t="n">
-        <v>24.16449842047572</v>
+        <v>24.16449842047574</v>
       </c>
       <c r="L13" t="n">
-        <v>30.92223843258686</v>
+        <v>30.92223843258689</v>
       </c>
       <c r="M13" t="n">
-        <v>32.60316480941025</v>
+        <v>32.60316480941027</v>
       </c>
       <c r="N13" t="n">
-        <v>31.82793442189892</v>
+        <v>31.82793442189895</v>
       </c>
       <c r="O13" t="n">
-        <v>29.39824893908895</v>
+        <v>29.39824893908897</v>
       </c>
       <c r="P13" t="n">
-        <v>25.15528067183169</v>
+        <v>25.15528067183171</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.41621243748059</v>
+        <v>17.41621243748061</v>
       </c>
       <c r="R13" t="n">
-        <v>9.351925601539351</v>
+        <v>9.35192560153936</v>
       </c>
       <c r="S13" t="n">
-        <v>3.624674763071358</v>
+        <v>3.624674763071361</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8886787369032542</v>
+        <v>0.8886787369032549</v>
       </c>
       <c r="U13" t="n">
         <v>0.0113448349391905</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4636749958396107</v>
+        <v>0.4636749958396111</v>
       </c>
       <c r="H14" t="n">
-        <v>4.748611551142414</v>
+        <v>4.748611551142418</v>
       </c>
       <c r="I14" t="n">
-        <v>17.87583027710661</v>
+        <v>17.87583027710662</v>
       </c>
       <c r="J14" t="n">
-        <v>39.3538356781422</v>
+        <v>39.35383567814223</v>
       </c>
       <c r="K14" t="n">
-        <v>58.98119825203293</v>
+        <v>58.98119825203297</v>
       </c>
       <c r="L14" t="n">
-        <v>73.17139190595942</v>
+        <v>73.1713919059595</v>
       </c>
       <c r="M14" t="n">
-        <v>81.4172721132221</v>
+        <v>81.41727211322217</v>
       </c>
       <c r="N14" t="n">
-        <v>82.73468869515141</v>
+        <v>82.73468869515148</v>
       </c>
       <c r="O14" t="n">
-        <v>78.12402045527126</v>
+        <v>78.12402045527134</v>
       </c>
       <c r="P14" t="n">
-        <v>66.67704399548087</v>
+        <v>66.67704399548093</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.0716832069748</v>
+        <v>50.07168320697484</v>
       </c>
       <c r="R14" t="n">
-        <v>29.12632445740997</v>
+        <v>29.12632445741</v>
       </c>
       <c r="S14" t="n">
-        <v>10.56599396769514</v>
+        <v>10.56599396769515</v>
       </c>
       <c r="T14" t="n">
-        <v>2.029737294287897</v>
+        <v>2.029737294287898</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03709399966716885</v>
+        <v>0.03709399966716888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2480879942362598</v>
+        <v>0.24808799423626</v>
       </c>
       <c r="H15" t="n">
-        <v>2.396007733808089</v>
+        <v>2.396007733808091</v>
       </c>
       <c r="I15" t="n">
-        <v>8.541626117344912</v>
+        <v>8.541626117344919</v>
       </c>
       <c r="J15" t="n">
-        <v>23.43887492913716</v>
+        <v>23.43887492913719</v>
       </c>
       <c r="K15" t="n">
-        <v>40.06077054296657</v>
+        <v>40.06077054296661</v>
       </c>
       <c r="L15" t="n">
-        <v>53.86664980116686</v>
+        <v>53.8666498011669</v>
       </c>
       <c r="M15" t="n">
-        <v>62.85983959223126</v>
+        <v>62.85983959223132</v>
       </c>
       <c r="N15" t="n">
-        <v>64.52355250094725</v>
+        <v>64.5235525009473</v>
       </c>
       <c r="O15" t="n">
-        <v>59.02644483918591</v>
+        <v>59.02644483918596</v>
       </c>
       <c r="P15" t="n">
-        <v>47.37392584674684</v>
+        <v>47.37392584674689</v>
       </c>
       <c r="Q15" t="n">
-        <v>31.66821484321099</v>
+        <v>31.66821484321102</v>
       </c>
       <c r="R15" t="n">
-        <v>15.40321774740568</v>
+        <v>15.40321774740569</v>
       </c>
       <c r="S15" t="n">
-        <v>4.608125682414736</v>
+        <v>4.608125682414739</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9999687136101872</v>
+        <v>0.9999687136101881</v>
       </c>
       <c r="U15" t="n">
-        <v>0.016321578568175</v>
+        <v>0.01632157856817501</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2079886405518255</v>
+        <v>0.2079886405518257</v>
       </c>
       <c r="H16" t="n">
-        <v>1.84920809508805</v>
+        <v>1.849208095088052</v>
       </c>
       <c r="I16" t="n">
-        <v>6.254785663140354</v>
+        <v>6.25478566314036</v>
       </c>
       <c r="J16" t="n">
-        <v>14.70479688701406</v>
+        <v>14.70479688701407</v>
       </c>
       <c r="K16" t="n">
-        <v>24.16449842047572</v>
+        <v>24.16449842047574</v>
       </c>
       <c r="L16" t="n">
-        <v>30.92223843258686</v>
+        <v>30.92223843258689</v>
       </c>
       <c r="M16" t="n">
-        <v>32.60316480941025</v>
+        <v>32.60316480941027</v>
       </c>
       <c r="N16" t="n">
-        <v>31.82793442189892</v>
+        <v>31.82793442189895</v>
       </c>
       <c r="O16" t="n">
-        <v>29.39824893908895</v>
+        <v>29.39824893908897</v>
       </c>
       <c r="P16" t="n">
-        <v>25.15528067183169</v>
+        <v>25.15528067183171</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.41621243748059</v>
+        <v>17.41621243748061</v>
       </c>
       <c r="R16" t="n">
-        <v>9.351925601539351</v>
+        <v>9.35192560153936</v>
       </c>
       <c r="S16" t="n">
-        <v>3.624674763071358</v>
+        <v>3.624674763071361</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8886787369032542</v>
+        <v>0.8886787369032549</v>
       </c>
       <c r="U16" t="n">
         <v>0.0113448349391905</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.463674995839611</v>
+        <v>0.4636749958396107</v>
       </c>
       <c r="H17" t="n">
-        <v>4.748611551142417</v>
+        <v>4.748611551142414</v>
       </c>
       <c r="I17" t="n">
-        <v>17.87583027710662</v>
+        <v>17.87583027710661</v>
       </c>
       <c r="J17" t="n">
-        <v>39.35383567814222</v>
+        <v>39.3538356781422</v>
       </c>
       <c r="K17" t="n">
-        <v>58.98119825203296</v>
+        <v>58.98119825203293</v>
       </c>
       <c r="L17" t="n">
-        <v>73.17139190595947</v>
+        <v>73.17139190595942</v>
       </c>
       <c r="M17" t="n">
-        <v>81.41727211322215</v>
+        <v>81.4172721132221</v>
       </c>
       <c r="N17" t="n">
-        <v>82.73468869515145</v>
+        <v>82.73468869515141</v>
       </c>
       <c r="O17" t="n">
-        <v>78.12402045527132</v>
+        <v>78.12402045527126</v>
       </c>
       <c r="P17" t="n">
-        <v>66.67704399548091</v>
+        <v>66.67704399548087</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.07168320697482</v>
+        <v>50.0716832069748</v>
       </c>
       <c r="R17" t="n">
-        <v>29.12632445740999</v>
+        <v>29.12632445740997</v>
       </c>
       <c r="S17" t="n">
-        <v>10.56599396769515</v>
+        <v>10.56599396769514</v>
       </c>
       <c r="T17" t="n">
-        <v>2.029737294287898</v>
+        <v>2.029737294287897</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03709399966716887</v>
+        <v>0.03709399966716885</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.24808799423626</v>
+        <v>0.2480879942362598</v>
       </c>
       <c r="H18" t="n">
-        <v>2.39600773380809</v>
+        <v>2.396007733808089</v>
       </c>
       <c r="I18" t="n">
-        <v>8.541626117344917</v>
+        <v>8.541626117344912</v>
       </c>
       <c r="J18" t="n">
-        <v>23.43887492913718</v>
+        <v>23.43887492913716</v>
       </c>
       <c r="K18" t="n">
-        <v>40.06077054296659</v>
+        <v>40.06077054296657</v>
       </c>
       <c r="L18" t="n">
-        <v>53.86664980116689</v>
+        <v>53.86664980116686</v>
       </c>
       <c r="M18" t="n">
-        <v>62.8598395922313</v>
+        <v>62.85983959223126</v>
       </c>
       <c r="N18" t="n">
-        <v>64.52355250094729</v>
+        <v>64.52355250094725</v>
       </c>
       <c r="O18" t="n">
-        <v>59.02644483918594</v>
+        <v>59.02644483918591</v>
       </c>
       <c r="P18" t="n">
-        <v>47.37392584674688</v>
+        <v>47.37392584674684</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.66821484321101</v>
+        <v>31.66821484321099</v>
       </c>
       <c r="R18" t="n">
-        <v>15.40321774740569</v>
+        <v>15.40321774740568</v>
       </c>
       <c r="S18" t="n">
-        <v>4.608125682414738</v>
+        <v>4.608125682414736</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9999687136101878</v>
+        <v>0.9999687136101872</v>
       </c>
       <c r="U18" t="n">
         <v>0.016321578568175</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2079886405518256</v>
+        <v>0.2079886405518255</v>
       </c>
       <c r="H19" t="n">
-        <v>1.849208095088051</v>
+        <v>1.84920809508805</v>
       </c>
       <c r="I19" t="n">
-        <v>6.254785663140359</v>
+        <v>6.254785663140354</v>
       </c>
       <c r="J19" t="n">
-        <v>14.70479688701407</v>
+        <v>14.70479688701406</v>
       </c>
       <c r="K19" t="n">
-        <v>24.16449842047574</v>
+        <v>24.16449842047572</v>
       </c>
       <c r="L19" t="n">
-        <v>30.92223843258688</v>
+        <v>30.92223843258686</v>
       </c>
       <c r="M19" t="n">
-        <v>32.60316480941027</v>
+        <v>32.60316480941025</v>
       </c>
       <c r="N19" t="n">
-        <v>31.82793442189894</v>
+        <v>31.82793442189892</v>
       </c>
       <c r="O19" t="n">
-        <v>29.39824893908897</v>
+        <v>29.39824893908895</v>
       </c>
       <c r="P19" t="n">
-        <v>25.1552806718317</v>
+        <v>25.15528067183169</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.4162124374806</v>
+        <v>17.41621243748059</v>
       </c>
       <c r="R19" t="n">
-        <v>9.351925601539358</v>
+        <v>9.351925601539351</v>
       </c>
       <c r="S19" t="n">
-        <v>3.62467476307136</v>
+        <v>3.624674763071358</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8886787369032547</v>
+        <v>0.8886787369032542</v>
       </c>
       <c r="U19" t="n">
         <v>0.0113448349391905</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4636749958396111</v>
+        <v>0.4636749958396107</v>
       </c>
       <c r="H20" t="n">
-        <v>4.748611551142418</v>
+        <v>4.748611551142414</v>
       </c>
       <c r="I20" t="n">
-        <v>17.87583027710662</v>
+        <v>17.87583027710661</v>
       </c>
       <c r="J20" t="n">
-        <v>39.35383567814223</v>
+        <v>39.3538356781422</v>
       </c>
       <c r="K20" t="n">
-        <v>58.98119825203297</v>
+        <v>58.98119825203293</v>
       </c>
       <c r="L20" t="n">
-        <v>73.1713919059595</v>
+        <v>73.17139190595942</v>
       </c>
       <c r="M20" t="n">
-        <v>81.41727211322217</v>
+        <v>81.4172721132221</v>
       </c>
       <c r="N20" t="n">
-        <v>82.73468869515148</v>
+        <v>82.73468869515141</v>
       </c>
       <c r="O20" t="n">
-        <v>78.12402045527134</v>
+        <v>78.12402045527126</v>
       </c>
       <c r="P20" t="n">
-        <v>66.67704399548093</v>
+        <v>66.67704399548087</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.07168320697484</v>
+        <v>50.0716832069748</v>
       </c>
       <c r="R20" t="n">
-        <v>29.12632445741</v>
+        <v>29.12632445740997</v>
       </c>
       <c r="S20" t="n">
-        <v>10.56599396769515</v>
+        <v>10.56599396769514</v>
       </c>
       <c r="T20" t="n">
-        <v>2.029737294287898</v>
+        <v>2.029737294287897</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03709399966716888</v>
+        <v>0.03709399966716885</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.24808799423626</v>
+        <v>0.2480879942362598</v>
       </c>
       <c r="H21" t="n">
-        <v>2.396007733808091</v>
+        <v>2.396007733808089</v>
       </c>
       <c r="I21" t="n">
-        <v>8.541626117344919</v>
+        <v>8.541626117344912</v>
       </c>
       <c r="J21" t="n">
-        <v>23.43887492913719</v>
+        <v>23.43887492913716</v>
       </c>
       <c r="K21" t="n">
-        <v>40.06077054296661</v>
+        <v>40.06077054296657</v>
       </c>
       <c r="L21" t="n">
-        <v>53.8666498011669</v>
+        <v>53.86664980116686</v>
       </c>
       <c r="M21" t="n">
-        <v>62.85983959223132</v>
+        <v>62.85983959223126</v>
       </c>
       <c r="N21" t="n">
-        <v>64.5235525009473</v>
+        <v>64.52355250094725</v>
       </c>
       <c r="O21" t="n">
-        <v>59.02644483918596</v>
+        <v>59.02644483918591</v>
       </c>
       <c r="P21" t="n">
-        <v>47.37392584674689</v>
+        <v>47.37392584674684</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.66821484321102</v>
+        <v>31.66821484321099</v>
       </c>
       <c r="R21" t="n">
-        <v>15.40321774740569</v>
+        <v>15.40321774740568</v>
       </c>
       <c r="S21" t="n">
-        <v>4.608125682414739</v>
+        <v>4.608125682414736</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9999687136101881</v>
+        <v>0.9999687136101872</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01632157856817501</v>
+        <v>0.016321578568175</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2079886405518257</v>
+        <v>0.2079886405518255</v>
       </c>
       <c r="H22" t="n">
-        <v>1.849208095088052</v>
+        <v>1.84920809508805</v>
       </c>
       <c r="I22" t="n">
-        <v>6.25478566314036</v>
+        <v>6.254785663140354</v>
       </c>
       <c r="J22" t="n">
-        <v>14.70479688701407</v>
+        <v>14.70479688701406</v>
       </c>
       <c r="K22" t="n">
-        <v>24.16449842047574</v>
+        <v>24.16449842047572</v>
       </c>
       <c r="L22" t="n">
-        <v>30.92223843258689</v>
+        <v>30.92223843258686</v>
       </c>
       <c r="M22" t="n">
-        <v>32.60316480941027</v>
+        <v>32.60316480941025</v>
       </c>
       <c r="N22" t="n">
-        <v>31.82793442189895</v>
+        <v>31.82793442189892</v>
       </c>
       <c r="O22" t="n">
-        <v>29.39824893908897</v>
+        <v>29.39824893908895</v>
       </c>
       <c r="P22" t="n">
-        <v>25.15528067183171</v>
+        <v>25.15528067183169</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.41621243748061</v>
+        <v>17.41621243748059</v>
       </c>
       <c r="R22" t="n">
-        <v>9.35192560153936</v>
+        <v>9.351925601539351</v>
       </c>
       <c r="S22" t="n">
-        <v>3.624674763071361</v>
+        <v>3.624674763071358</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8886787369032549</v>
+        <v>0.8886787369032542</v>
       </c>
       <c r="U22" t="n">
         <v>0.0113448349391905</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.21133270813727</v>
+        <v>12.725494085322</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>12.725494085322</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="L4" t="n">
         <v>12.725494085322</v>
@@ -34868,16 +34868,16 @@
         <v>12.725494085322</v>
       </c>
       <c r="N4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>8.754568697984791</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12.21133270813727</v>
-      </c>
-      <c r="M5" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="K6" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="L6" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>12.725494085322</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>12.21133270813727</v>
+      </c>
+      <c r="L7" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
       <c r="M7" t="n">
-        <v>8.754568697984791</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="O7" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="P7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.456764010152483</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>33.95693559625769</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="N8" t="n">
         <v>229.9609751381512</v>
@@ -35190,10 +35190,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L9" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N9" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O9" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>571.4747168741704</v>
       </c>
       <c r="M11" t="n">
-        <v>632.9333327643136</v>
+        <v>632.9333327643137</v>
       </c>
       <c r="N11" t="n">
-        <v>615.8773994400625</v>
+        <v>615.8773994400626</v>
       </c>
       <c r="O11" t="n">
         <v>522.6084658010576</v>
@@ -35430,7 +35430,7 @@
         <v>418.3815815020686</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.7843702180339</v>
+        <v>236.784370218034</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>137.6964327268416</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>363.0296049492559</v>
       </c>
       <c r="L12" t="n">
-        <v>542.3172416176449</v>
+        <v>501.9023961038544</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>726.9255436227241</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>176.4533198347369</v>
+        <v>580.7641040219951</v>
       </c>
       <c r="P12" t="n">
-        <v>457.0924801057341</v>
+        <v>457.0924801057342</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.4006305552216</v>
+        <v>268.4006305552217</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.21427569934026</v>
+        <v>69.21427569934028</v>
       </c>
       <c r="K13" t="n">
         <v>191.410122391771</v>
@@ -35588,7 +35588,7 @@
         <v>230.8262830942751</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.4569427321183</v>
+        <v>105.4569427321184</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>421.5896386838126</v>
       </c>
       <c r="L14" t="n">
-        <v>571.4747168741708</v>
+        <v>571.4747168741704</v>
       </c>
       <c r="M14" t="n">
-        <v>632.9333327643136</v>
+        <v>632.9333327643137</v>
       </c>
       <c r="N14" t="n">
-        <v>615.8773994400625</v>
+        <v>615.8773994400626</v>
       </c>
       <c r="O14" t="n">
         <v>522.6084658010576</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3815815020686</v>
+        <v>418.3815815020683</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.7843702180339</v>
+        <v>236.784370218034</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.6964327268416</v>
+        <v>97.28158721305103</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>363.0296049492559</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>542.317241617645</v>
       </c>
       <c r="M15" t="n">
-        <v>406.407087985608</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>726.9255436227241</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>580.7641040219951</v>
       </c>
       <c r="P15" t="n">
-        <v>457.0924801057341</v>
+        <v>457.0924801057342</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>268.4006305552217</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.21427569934026</v>
+        <v>69.21427569934028</v>
       </c>
       <c r="K16" t="n">
         <v>191.410122391771</v>
@@ -35822,10 +35822,10 @@
         <v>278.3304647606531</v>
       </c>
       <c r="P16" t="n">
-        <v>230.8262830942751</v>
+        <v>230.8262830942752</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.4569427321183</v>
+        <v>105.4569427321184</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>632.9333327643136</v>
       </c>
       <c r="N17" t="n">
-        <v>615.8773994400626</v>
+        <v>615.8773994400625</v>
       </c>
       <c r="O17" t="n">
         <v>522.6084658010576</v>
@@ -35904,7 +35904,7 @@
         <v>418.3815815020686</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.784370218034</v>
+        <v>236.7843702180339</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>97.28158721305165</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>363.0296049492559</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>542.3172416176449</v>
       </c>
       <c r="M18" t="n">
-        <v>696.9726169929194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>305.655816787033</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>580.7641040219951</v>
       </c>
       <c r="P18" t="n">
-        <v>457.0924801057342</v>
+        <v>457.0924801057341</v>
       </c>
       <c r="Q18" t="n">
         <v>268.4006305552216</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>69.21427569934028</v>
+        <v>69.21427569934026</v>
       </c>
       <c r="K19" t="n">
         <v>191.410122391771</v>
@@ -36050,7 +36050,7 @@
         <v>281.2916995390921</v>
       </c>
       <c r="M19" t="n">
-        <v>305.3604425466875</v>
+        <v>305.3604425466883</v>
       </c>
       <c r="N19" t="n">
         <v>301.451935081343</v>
@@ -36129,10 +36129,10 @@
         <v>571.4747168741704</v>
       </c>
       <c r="M20" t="n">
-        <v>632.9333327643137</v>
+        <v>632.9333327643136</v>
       </c>
       <c r="N20" t="n">
-        <v>615.8773994400626</v>
+        <v>615.8773994400625</v>
       </c>
       <c r="O20" t="n">
         <v>522.6084658010576</v>
@@ -36141,7 +36141,7 @@
         <v>418.3815815020686</v>
       </c>
       <c r="Q20" t="n">
-        <v>236.784370218034</v>
+        <v>236.7843702180339</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>137.6964327268416</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>363.0296049492559</v>
       </c>
       <c r="L21" t="n">
-        <v>21.79794445946226</v>
+        <v>501.9023961038549</v>
       </c>
       <c r="M21" t="n">
-        <v>696.9726169929194</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>726.9255436227241</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>580.7641040219951</v>
       </c>
       <c r="P21" t="n">
-        <v>457.0924801057342</v>
+        <v>457.0924801057341</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.4006305552217</v>
+        <v>268.4006305552216</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>69.21427569934104</v>
+        <v>69.21427569934026</v>
       </c>
       <c r="K22" t="n">
         <v>191.410122391771</v>
@@ -36287,7 +36287,7 @@
         <v>281.2916995390921</v>
       </c>
       <c r="M22" t="n">
-        <v>305.3604425466875</v>
+        <v>305.3604425466883</v>
       </c>
       <c r="N22" t="n">
         <v>301.451935081343</v>
@@ -36296,10 +36296,10 @@
         <v>278.3304647606531</v>
       </c>
       <c r="P22" t="n">
-        <v>230.8262830942752</v>
+        <v>230.8262830942751</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.4569427321184</v>
+        <v>105.4569427321183</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>31.73920572460956</v>
       </c>
       <c r="K24" t="n">
-        <v>304.2233838252649</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>542.3172416176449</v>
       </c>
       <c r="M24" t="n">
         <v>696.9726169929194</v>
       </c>
       <c r="N24" t="n">
-        <v>726.9255436227241</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>580.7641040219951</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>457.0924801057341</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36533,7 +36533,7 @@
         <v>278.3304647606531</v>
       </c>
       <c r="P25" t="n">
-        <v>230.826283094276</v>
+        <v>230.8262830942751</v>
       </c>
       <c r="Q25" t="n">
         <v>105.4569427321183</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>137.6964327268416</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>363.0296049492559</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>542.3172416176449</v>
       </c>
       <c r="M27" t="n">
-        <v>696.9726169929194</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>574.056447342255</v>
+        <v>540.349258508205</v>
       </c>
       <c r="O27" t="n">
-        <v>580.7641040219951</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>457.0924801057341</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>268.4006305552216</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>137.6964327268416</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>363.0296049492559</v>
       </c>
       <c r="L30" t="n">
-        <v>166.5269510984228</v>
+        <v>501.9023961038549</v>
       </c>
       <c r="M30" t="n">
-        <v>696.9726169929194</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>726.9255436227241</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>580.7641040219951</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>457.0924801057341</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>268.4006305552216</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>137.6964327268416</v>
       </c>
       <c r="K33" t="n">
-        <v>363.0296049492559</v>
+        <v>322.6147594354659</v>
       </c>
       <c r="L33" t="n">
         <v>542.3172416176449</v>
@@ -37159,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>726.9255436227241</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>580.7641040219951</v>
       </c>
       <c r="P33" t="n">
-        <v>270.516194991215</v>
+        <v>457.0924801057341</v>
       </c>
       <c r="Q33" t="n">
         <v>268.4006305552216</v>
@@ -37232,7 +37232,7 @@
         <v>191.410122391771</v>
       </c>
       <c r="L34" t="n">
-        <v>281.2916995390934</v>
+        <v>281.2916995390921</v>
       </c>
       <c r="M34" t="n">
         <v>305.3604425466875</v>
@@ -37390,19 +37390,19 @@
         <v>363.0296049492559</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>542.3172416176449</v>
       </c>
       <c r="M36" t="n">
         <v>696.9726169929194</v>
       </c>
       <c r="N36" t="n">
-        <v>726.9255436227241</v>
+        <v>706.5661849030829</v>
       </c>
       <c r="O36" t="n">
-        <v>64.86540279226961</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>457.0924801057341</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>191.410122391771</v>
       </c>
       <c r="L37" t="n">
-        <v>281.2916995390921</v>
+        <v>281.2916995390929</v>
       </c>
       <c r="M37" t="n">
         <v>305.3604425466875</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>137.6964327268416</v>
       </c>
       <c r="K39" t="n">
         <v>363.0296049492559</v>
       </c>
       <c r="L39" t="n">
-        <v>542.317241617645</v>
+        <v>501.9023961038548</v>
       </c>
       <c r="M39" t="n">
-        <v>676.6132582732779</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>726.9255436227241</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>580.7641040219951</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>457.0924801057342</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>268.4006305552216</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>69.21427569934028</v>
       </c>
       <c r="K40" t="n">
-        <v>191.4101223917717</v>
+        <v>191.410122391771</v>
       </c>
       <c r="L40" t="n">
         <v>281.2916995390921</v>
@@ -37721,7 +37721,7 @@
         <v>230.8262830942751</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.4569427321183</v>
+        <v>105.4569427321194</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>571.4747168741704</v>
       </c>
       <c r="M41" t="n">
-        <v>632.9333327643133</v>
+        <v>632.9333327643136</v>
       </c>
       <c r="N41" t="n">
         <v>615.8773994400626</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.6964327268416</v>
+        <v>97.28158721305147</v>
       </c>
       <c r="K42" t="n">
         <v>363.0296049492559</v>
       </c>
       <c r="L42" t="n">
-        <v>355.7409565031257</v>
+        <v>542.317241617645</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>726.9255436227241</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>580.7641040219951</v>
       </c>
       <c r="P42" t="n">
         <v>457.0924801057342</v>
@@ -38022,7 +38022,7 @@
         <v>421.5896386838126</v>
       </c>
       <c r="L44" t="n">
-        <v>571.4747168741704</v>
+        <v>571.4747168741706</v>
       </c>
       <c r="M44" t="n">
         <v>632.9333327643136</v>
@@ -38101,22 +38101,22 @@
         <v>363.0296049492559</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>501.9023961038548</v>
       </c>
       <c r="M45" t="n">
-        <v>696.9726169929194</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>726.9255436227241</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>384.261450171162</v>
+        <v>580.7641040219951</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>457.0924801057342</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>268.4006305552216</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
